--- a/disagreement_matrix/engineering_version/rsj_matrix_records/wine_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/wine_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,3749 +394,3359 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2508412625086646</v>
+        <v>0.3205590792024058</v>
       </c>
       <c r="C2">
-        <v>0.1907295122176862</v>
+        <v>0.2333929133901927</v>
       </c>
       <c r="D2">
-        <v>0.006061339425489218</v>
+        <v>0.007257388748376291</v>
       </c>
       <c r="E2">
-        <v>0.007448407742397647</v>
+        <v>0.009459774525710809</v>
       </c>
       <c r="F2">
-        <v>0.006563363620661605</v>
+        <v>0.008656570591355861</v>
       </c>
       <c r="G2">
-        <v>0.1759076288182886</v>
+        <v>0.2125889506985928</v>
       </c>
       <c r="H2">
-        <v>0.1687009665919877</v>
-      </c>
-      <c r="I2">
-        <v>0.1937475190748245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.2080853228433656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2713182356227199</v>
+        <v>0.3527483192306434</v>
       </c>
       <c r="C3">
-        <v>0.1825219210561697</v>
+        <v>0.2384986858222194</v>
       </c>
       <c r="D3">
-        <v>0.01010523129350908</v>
+        <v>0.01241438656264903</v>
       </c>
       <c r="E3">
-        <v>0.01505787725533831</v>
+        <v>0.01816135673018457</v>
       </c>
       <c r="F3">
-        <v>0.006479552204268589</v>
+        <v>0.008206833347830544</v>
       </c>
       <c r="G3">
-        <v>0.1556345313352681</v>
+        <v>0.1975818325148425</v>
       </c>
       <c r="H3">
-        <v>0.1491035895897766</v>
-      </c>
-      <c r="I3">
-        <v>0.2097790616429497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1723885857916307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2202217081412428</v>
+        <v>0.2709353177901752</v>
       </c>
       <c r="C4">
-        <v>0.1963381645473133</v>
+        <v>0.2387048097472788</v>
       </c>
       <c r="D4">
-        <v>0.02351814640133978</v>
+        <v>0.02775566131081183</v>
       </c>
       <c r="E4">
-        <v>0.02383716976204461</v>
+        <v>0.02826538742075573</v>
       </c>
       <c r="F4">
-        <v>0.01523474168764504</v>
+        <v>0.01794851981927521</v>
       </c>
       <c r="G4">
-        <v>0.1852555906769078</v>
+        <v>0.2231559069778576</v>
       </c>
       <c r="H4">
-        <v>0.1585106621986587</v>
-      </c>
-      <c r="I4">
-        <v>0.177083816584848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1932343969338457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2114059596063384</v>
+        <v>0.2782120653459334</v>
       </c>
       <c r="C5">
-        <v>0.1960839464471275</v>
+        <v>0.2423030705866768</v>
       </c>
       <c r="D5">
-        <v>0.005788167320675986</v>
+        <v>0.007766342405191261</v>
       </c>
       <c r="E5">
-        <v>0.02169593432625201</v>
+        <v>0.02967248999662684</v>
       </c>
       <c r="F5">
-        <v>0.007597182745083963</v>
+        <v>0.009422624295174651</v>
       </c>
       <c r="G5">
-        <v>0.1632091556160283</v>
+        <v>0.2023432960896778</v>
       </c>
       <c r="H5">
-        <v>0.1862208108783519</v>
-      </c>
-      <c r="I5">
-        <v>0.207998843060142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.2302801112807192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2760473305118257</v>
+        <v>0.3643781264951245</v>
       </c>
       <c r="C6">
-        <v>0.1445367932689459</v>
+        <v>0.1828063337182671</v>
       </c>
       <c r="D6">
-        <v>0.007816873521846259</v>
+        <v>0.01010818728834995</v>
       </c>
       <c r="E6">
-        <v>0.0201324846681641</v>
+        <v>0.02940434925448746</v>
       </c>
       <c r="F6">
-        <v>0.00564290770377655</v>
+        <v>0.007171881709855406</v>
       </c>
       <c r="G6">
-        <v>0.1548561707573105</v>
+        <v>0.1956207292373734</v>
       </c>
       <c r="H6">
-        <v>0.1447378909475664</v>
-      </c>
-      <c r="I6">
-        <v>0.2462295486205646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.2105103922965423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2374888017548724</v>
+        <v>0.3008225097409029</v>
       </c>
       <c r="C7">
-        <v>0.171243081155796</v>
+        <v>0.2129069437386102</v>
       </c>
       <c r="D7">
-        <v>0.02016957027616303</v>
+        <v>0.02489930350899777</v>
       </c>
       <c r="E7">
-        <v>0.01595932621343185</v>
+        <v>0.01893466600911113</v>
       </c>
       <c r="F7">
-        <v>0.01356466513240218</v>
+        <v>0.01700680543769606</v>
       </c>
       <c r="G7">
-        <v>0.1824495691109188</v>
+        <v>0.2215370690785944</v>
       </c>
       <c r="H7">
-        <v>0.1667685558710373</v>
-      </c>
-      <c r="I7">
-        <v>0.1923564304853783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.2038927024860875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2852559174130162</v>
+        <v>0.395832531633241</v>
       </c>
       <c r="C8">
-        <v>0.1599170622618424</v>
+        <v>0.2060505264627726</v>
       </c>
       <c r="D8">
-        <v>0.01205206774834787</v>
+        <v>0.01746682168736017</v>
       </c>
       <c r="E8">
-        <v>0.0112009126643388</v>
+        <v>0.0157698794315912</v>
       </c>
       <c r="F8">
-        <v>0.008533136989246794</v>
+        <v>0.01203763507434037</v>
       </c>
       <c r="G8">
-        <v>0.2127056025987108</v>
+        <v>0.2774583862499332</v>
       </c>
       <c r="H8">
-        <v>0.05395928287077827</v>
-      </c>
-      <c r="I8">
-        <v>0.256376017453719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.07538421946076149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2509234885637256</v>
+        <v>0.30698459484729</v>
       </c>
       <c r="C9">
-        <v>0.1816205584482096</v>
+        <v>0.2227180640472517</v>
       </c>
       <c r="D9">
-        <v>0.01919211882690857</v>
+        <v>0.02414351741075796</v>
       </c>
       <c r="E9">
-        <v>0.02383667248348534</v>
+        <v>0.02943308969396862</v>
       </c>
       <c r="F9">
-        <v>0.01578357620410366</v>
+        <v>0.01920959507865354</v>
       </c>
       <c r="G9">
-        <v>0.1651800519699293</v>
+        <v>0.2018374651743867</v>
       </c>
       <c r="H9">
-        <v>0.1589131635056028</v>
-      </c>
-      <c r="I9">
-        <v>0.184550369998035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1956736737476913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.265632987167487</v>
+        <v>0.3058284411081391</v>
       </c>
       <c r="C10">
-        <v>0.200130179970558</v>
+        <v>0.2308833135969146</v>
       </c>
       <c r="D10">
-        <v>0.01612563552167226</v>
+        <v>0.01483374746729504</v>
       </c>
       <c r="E10">
-        <v>0.008058898545677599</v>
+        <v>0.008313104551596099</v>
       </c>
       <c r="F10">
-        <v>0.01003816173099682</v>
+        <v>0.009963954303184228</v>
       </c>
       <c r="G10">
-        <v>0.2285770230475057</v>
+        <v>0.2531157410862457</v>
       </c>
       <c r="H10">
-        <v>0.1619082095237646</v>
-      </c>
-      <c r="I10">
-        <v>0.109528904492338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1770616978866252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.321270253358301</v>
+        <v>0.3916697303638457</v>
       </c>
       <c r="C11">
-        <v>0.1657135126378577</v>
+        <v>0.2114817705408943</v>
       </c>
       <c r="D11">
-        <v>0.0155953240629051</v>
+        <v>0.01971323497625238</v>
       </c>
       <c r="E11">
-        <v>0.01342152325211974</v>
+        <v>0.01694066128836274</v>
       </c>
       <c r="F11">
-        <v>0.007280513759871516</v>
+        <v>0.009082902310563282</v>
       </c>
       <c r="G11">
-        <v>0.1505674906848858</v>
+        <v>0.1808097335521518</v>
       </c>
       <c r="H11">
-        <v>0.1403995634510506</v>
-      </c>
-      <c r="I11">
-        <v>0.1857518187930085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1703019669679299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2171745883358875</v>
+        <v>0.2918715735616471</v>
       </c>
       <c r="C12">
-        <v>0.2237779301323583</v>
+        <v>0.2884277684499604</v>
       </c>
       <c r="D12">
-        <v>0.01905797256980005</v>
+        <v>0.02459357973300534</v>
       </c>
       <c r="E12">
-        <v>0.02137560838804717</v>
+        <v>0.02814269273717507</v>
       </c>
       <c r="F12">
-        <v>0.01510306191803934</v>
+        <v>0.02047839619973943</v>
       </c>
       <c r="G12">
-        <v>0.2080860836038087</v>
+        <v>0.2644326114722417</v>
       </c>
       <c r="H12">
-        <v>0.06256746473556421</v>
-      </c>
-      <c r="I12">
-        <v>0.2328572903164947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.08205337784623096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1084007388197006</v>
+        <v>0.1176491532802998</v>
       </c>
       <c r="C13">
-        <v>0.1233883484832099</v>
+        <v>0.1393786638640123</v>
       </c>
       <c r="D13">
-        <v>0.1696361604210403</v>
+        <v>0.1901625250486643</v>
       </c>
       <c r="E13">
-        <v>0.1364579392069816</v>
+        <v>0.1521471468658395</v>
       </c>
       <c r="F13">
-        <v>0.1310822460075503</v>
+        <v>0.1586374458396299</v>
       </c>
       <c r="G13">
-        <v>0.1135219990533607</v>
+        <v>0.1274224994867562</v>
       </c>
       <c r="H13">
-        <v>0.10084447841058</v>
-      </c>
-      <c r="I13">
-        <v>0.1166680895975768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1146025656147981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.09638890915604816</v>
+        <v>0.1015980433959023</v>
       </c>
       <c r="C14">
-        <v>0.1005625392484296</v>
+        <v>0.1109040396440746</v>
       </c>
       <c r="D14">
-        <v>0.1048961027843756</v>
+        <v>0.1128958434674028</v>
       </c>
       <c r="E14">
-        <v>0.1001296340062917</v>
+        <v>0.111984451346502</v>
       </c>
       <c r="F14">
-        <v>0.3111982641299348</v>
+        <v>0.3406140383982028</v>
       </c>
       <c r="G14">
-        <v>0.0917996201522055</v>
+        <v>0.09809980045112783</v>
       </c>
       <c r="H14">
-        <v>0.1128309365974475</v>
-      </c>
-      <c r="I14">
-        <v>0.08219399392526695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1239037832967877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1334011853523481</v>
+        <v>0.149882846950486</v>
       </c>
       <c r="C15">
-        <v>0.06651134464228389</v>
+        <v>0.0704602452002959</v>
       </c>
       <c r="D15">
-        <v>0.1169045479872766</v>
+        <v>0.1272574234052273</v>
       </c>
       <c r="E15">
-        <v>0.1075249005839513</v>
+        <v>0.1141146730543058</v>
       </c>
       <c r="F15">
-        <v>0.3155741465284299</v>
+        <v>0.3424197360143591</v>
       </c>
       <c r="G15">
-        <v>0.09514769477090007</v>
+        <v>0.09931422154673077</v>
       </c>
       <c r="H15">
-        <v>0.0886908515393281</v>
-      </c>
-      <c r="I15">
-        <v>0.07624532859548228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.09655085382859506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1148101731540905</v>
+        <v>0.1358227526830896</v>
       </c>
       <c r="C16">
-        <v>0.1199015160316797</v>
+        <v>0.1401980763597286</v>
       </c>
       <c r="D16">
-        <v>0.1207164046807063</v>
+        <v>0.1370751504974985</v>
       </c>
       <c r="E16">
-        <v>0.1157657531375277</v>
+        <v>0.1345175666987274</v>
       </c>
       <c r="F16">
-        <v>0.08063825533181042</v>
+        <v>0.09526027153852011</v>
       </c>
       <c r="G16">
-        <v>0.1680027120101252</v>
+        <v>0.1894047583378163</v>
       </c>
       <c r="H16">
-        <v>0.1445303295027993</v>
-      </c>
-      <c r="I16">
-        <v>0.1356348561512606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1677214238846194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1388655097249953</v>
+        <v>0.1538159938505894</v>
       </c>
       <c r="C17">
-        <v>0.1309082495356024</v>
+        <v>0.1531150822243257</v>
       </c>
       <c r="D17">
-        <v>0.1525920782127899</v>
+        <v>0.1763180103545183</v>
       </c>
       <c r="E17">
-        <v>0.1510717327324679</v>
+        <v>0.170640542396704</v>
       </c>
       <c r="F17">
-        <v>0.08109957039371758</v>
+        <v>0.08807090936388447</v>
       </c>
       <c r="G17">
-        <v>0.1141797157060565</v>
+        <v>0.1275272357980623</v>
       </c>
       <c r="H17">
-        <v>0.1178040850516302</v>
-      </c>
-      <c r="I17">
-        <v>0.1134790586427402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1305122260119158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1853427384051212</v>
+        <v>0.2147874291665836</v>
       </c>
       <c r="C18">
-        <v>0.113066016045578</v>
+        <v>0.1284016824590869</v>
       </c>
       <c r="D18">
-        <v>0.1514321655414183</v>
+        <v>0.1548728470163116</v>
       </c>
       <c r="E18">
-        <v>0.1247762711874191</v>
+        <v>0.1312421428374623</v>
       </c>
       <c r="F18">
-        <v>0.1003988523143552</v>
+        <v>0.110616295022858</v>
       </c>
       <c r="G18">
-        <v>0.114367739991784</v>
+        <v>0.1263590761251662</v>
       </c>
       <c r="H18">
-        <v>0.1182810807034717</v>
-      </c>
-      <c r="I18">
-        <v>0.09233513581085245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1337205273725315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3139424033597051</v>
+        <v>0.3837526482139461</v>
       </c>
       <c r="C19">
-        <v>0.1461630150610298</v>
+        <v>0.1865019587738203</v>
       </c>
       <c r="D19">
-        <v>0.02448300193606841</v>
+        <v>0.02953843099708336</v>
       </c>
       <c r="E19">
-        <v>0.02522101668479269</v>
+        <v>0.0311415336409266</v>
       </c>
       <c r="F19">
-        <v>0.02319956822892126</v>
+        <v>0.02766149218078531</v>
       </c>
       <c r="G19">
-        <v>0.09892935979258868</v>
+        <v>0.1301842850624137</v>
       </c>
       <c r="H19">
-        <v>0.1739058011503339</v>
-      </c>
-      <c r="I19">
-        <v>0.19415583378656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.2112196511310247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.137667393979776</v>
+        <v>0.1569465330118806</v>
       </c>
       <c r="C20">
-        <v>0.1016838136713833</v>
+        <v>0.1119274212598601</v>
       </c>
       <c r="D20">
-        <v>0.1221721374117912</v>
+        <v>0.1412546686284524</v>
       </c>
       <c r="E20">
-        <v>0.1309815164365594</v>
+        <v>0.1430512179128517</v>
       </c>
       <c r="F20">
-        <v>0.2072803977244355</v>
+        <v>0.21967951161456</v>
       </c>
       <c r="G20">
-        <v>0.1020221870285577</v>
+        <v>0.1170122126904367</v>
       </c>
       <c r="H20">
-        <v>0.09499531989315428</v>
-      </c>
-      <c r="I20">
-        <v>0.1031972338543426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1101284348819584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1799775584707243</v>
+        <v>0.205976790218888</v>
       </c>
       <c r="C21">
-        <v>0.1040421485305494</v>
+        <v>0.1269017244197045</v>
       </c>
       <c r="D21">
-        <v>0.08241993768247934</v>
+        <v>0.1000162615831928</v>
       </c>
       <c r="E21">
-        <v>0.1171821244241147</v>
+        <v>0.136028557388202</v>
       </c>
       <c r="F21">
-        <v>0.07286029289265614</v>
+        <v>0.08742006637424328</v>
       </c>
       <c r="G21">
-        <v>0.1506273545761493</v>
+        <v>0.1748401128056063</v>
       </c>
       <c r="H21">
-        <v>0.143902693300765</v>
-      </c>
-      <c r="I21">
-        <v>0.1489878901225619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1688164872101629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2154152995334305</v>
+        <v>0.2876770448058705</v>
       </c>
       <c r="C22">
-        <v>0.1497672535723714</v>
+        <v>0.2102833650044541</v>
       </c>
       <c r="D22">
-        <v>0.01302433997571519</v>
+        <v>0.02278445851992769</v>
       </c>
       <c r="E22">
-        <v>0.03013818178747074</v>
+        <v>0.05066843419873598</v>
       </c>
       <c r="F22">
-        <v>0.01111312991258809</v>
+        <v>0.01549010211759841</v>
       </c>
       <c r="G22">
-        <v>0.136272669235932</v>
+        <v>0.1681073967280163</v>
       </c>
       <c r="H22">
-        <v>0.1589900432520602</v>
-      </c>
-      <c r="I22">
-        <v>0.2852790827304318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2449891986253971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1508242762947797</v>
+        <v>0.1791080536710786</v>
       </c>
       <c r="C23">
-        <v>0.1822212232341112</v>
+        <v>0.214666329940627</v>
       </c>
       <c r="D23">
-        <v>0.08922003736656839</v>
+        <v>0.1061181004610198</v>
       </c>
       <c r="E23">
-        <v>0.1135833316878732</v>
+        <v>0.1360329751286883</v>
       </c>
       <c r="F23">
-        <v>0.04096692420466268</v>
+        <v>0.04711513858142326</v>
       </c>
       <c r="G23">
-        <v>0.1416702846477353</v>
+        <v>0.1642638575095588</v>
       </c>
       <c r="H23">
-        <v>0.1326843389106592</v>
-      </c>
-      <c r="I23">
-        <v>0.1488295836536104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1526955447076043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2391932443827137</v>
+        <v>0.2818918850409068</v>
       </c>
       <c r="C24">
-        <v>0.1463933028024718</v>
+        <v>0.1673349771047252</v>
       </c>
       <c r="D24">
-        <v>0.07819644353827208</v>
+        <v>0.08566446874705767</v>
       </c>
       <c r="E24">
-        <v>0.06937083334818343</v>
+        <v>0.07443207892241352</v>
       </c>
       <c r="F24">
-        <v>0.03697244447503193</v>
+        <v>0.04304725963959444</v>
       </c>
       <c r="G24">
-        <v>0.1462641382787664</v>
+        <v>0.168750048307616</v>
       </c>
       <c r="H24">
-        <v>0.1525953211548576</v>
-      </c>
-      <c r="I24">
-        <v>0.1310142720197029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1788792822376862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0757486460440679</v>
+        <v>0.07912851965125406</v>
       </c>
       <c r="C25">
-        <v>0.09592745032563461</v>
+        <v>0.1009907581391353</v>
       </c>
       <c r="D25">
-        <v>0.1704224018093475</v>
+        <v>0.1859369040201525</v>
       </c>
       <c r="E25">
-        <v>0.1063874826069739</v>
+        <v>0.1090806039440232</v>
       </c>
       <c r="F25">
-        <v>0.3825272424335889</v>
+        <v>0.3951297119880097</v>
       </c>
       <c r="G25">
-        <v>0.05943102589840769</v>
+        <v>0.06497676334398289</v>
       </c>
       <c r="H25">
-        <v>0.05871974001034373</v>
-      </c>
-      <c r="I25">
-        <v>0.05083601087163573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.06475673891344241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.07735629608963079</v>
+        <v>0.09160127673393612</v>
       </c>
       <c r="C26">
-        <v>0.2248822579831328</v>
+        <v>0.2835154348516304</v>
       </c>
       <c r="D26">
-        <v>0.00897566260161241</v>
+        <v>0.01126496296358366</v>
       </c>
       <c r="E26">
-        <v>0.01027554651277137</v>
+        <v>0.01191066829393088</v>
       </c>
       <c r="F26">
-        <v>0.008300328224155001</v>
+        <v>0.01075388574014881</v>
       </c>
       <c r="G26">
-        <v>0.2257111658203528</v>
+        <v>0.2803040853349564</v>
       </c>
       <c r="H26">
-        <v>0.2581851890303449</v>
-      </c>
-      <c r="I26">
-        <v>0.1863135537379998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.3106496860818138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1858618198543149</v>
+        <v>0.2236586472182319</v>
       </c>
       <c r="C27">
-        <v>0.2169454435051239</v>
+        <v>0.2550976447234695</v>
       </c>
       <c r="D27">
-        <v>0.03776266702586479</v>
+        <v>0.04363173629341503</v>
       </c>
       <c r="E27">
-        <v>0.04290810300346001</v>
+        <v>0.04796748266414728</v>
       </c>
       <c r="F27">
-        <v>0.02680347238697707</v>
+        <v>0.03290703218106169</v>
       </c>
       <c r="G27">
-        <v>0.1859711296049921</v>
+        <v>0.2184505997605748</v>
       </c>
       <c r="H27">
-        <v>0.1466075600893407</v>
-      </c>
-      <c r="I27">
-        <v>0.1571398045299266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1782868571590998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1450930587762139</v>
+        <v>0.1676468777167694</v>
       </c>
       <c r="C28">
-        <v>0.1052719782066762</v>
+        <v>0.1190566246227768</v>
       </c>
       <c r="D28">
-        <v>0.1443902553653232</v>
+        <v>0.162027240352453</v>
       </c>
       <c r="E28">
-        <v>0.1050280434300215</v>
+        <v>0.1185022491964447</v>
       </c>
       <c r="F28">
-        <v>0.1542776319931158</v>
+        <v>0.1621671991867906</v>
       </c>
       <c r="G28">
-        <v>0.1040960420641012</v>
+        <v>0.1212567973443365</v>
       </c>
       <c r="H28">
-        <v>0.1372216961547509</v>
-      </c>
-      <c r="I28">
-        <v>0.1046212940097973</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.149343011580429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2000933045041025</v>
+        <v>0.2291997013915899</v>
       </c>
       <c r="C29">
-        <v>0.1506933684780103</v>
+        <v>0.1773114590192324</v>
       </c>
       <c r="D29">
-        <v>0.1111488294965481</v>
+        <v>0.119455364358526</v>
       </c>
       <c r="E29">
-        <v>0.1225536478125696</v>
+        <v>0.1311811271895659</v>
       </c>
       <c r="F29">
-        <v>0.07718990332749256</v>
+        <v>0.08588997326476895</v>
       </c>
       <c r="G29">
-        <v>0.1264379182705731</v>
+        <v>0.1480904975970433</v>
       </c>
       <c r="H29">
-        <v>0.1017999413997783</v>
-      </c>
-      <c r="I29">
-        <v>0.1100830867109257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1088718771792735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1081606325493792</v>
+        <v>0.1192814846981528</v>
       </c>
       <c r="C30">
-        <v>0.113579686000819</v>
+        <v>0.1246950846483376</v>
       </c>
       <c r="D30">
-        <v>0.1589480667465711</v>
+        <v>0.176069831520303</v>
       </c>
       <c r="E30">
-        <v>0.1327607327682696</v>
+        <v>0.1495296798958168</v>
       </c>
       <c r="F30">
-        <v>0.1611706537537079</v>
+        <v>0.1806961851550255</v>
       </c>
       <c r="G30">
-        <v>0.1079588265409796</v>
+        <v>0.1221881618448425</v>
       </c>
       <c r="H30">
-        <v>0.1158482320199468</v>
-      </c>
-      <c r="I30">
-        <v>0.1015731696203267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1275395722375218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2501247358181088</v>
+        <v>0.2567937663605968</v>
       </c>
       <c r="C31">
-        <v>0.228777789152222</v>
+        <v>0.269340289118322</v>
       </c>
       <c r="D31">
-        <v>0.09083505152938023</v>
+        <v>0.0981847138218289</v>
       </c>
       <c r="E31">
-        <v>0.04690112229209099</v>
+        <v>0.05546028749623236</v>
       </c>
       <c r="F31">
-        <v>0.02143013907228272</v>
+        <v>0.02179526689051215</v>
       </c>
       <c r="G31">
-        <v>0.1497067182256157</v>
+        <v>0.1798298751849564</v>
       </c>
       <c r="H31">
-        <v>0.1132389441845064</v>
-      </c>
-      <c r="I31">
-        <v>0.09898549972579303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1185958011275515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1304919794510326</v>
+        <v>0.1486962128827093</v>
       </c>
       <c r="C32">
-        <v>0.09552323882080382</v>
+        <v>0.1082897320997771</v>
       </c>
       <c r="D32">
-        <v>0.1163249378464425</v>
+        <v>0.1312463825348203</v>
       </c>
       <c r="E32">
-        <v>0.1049050320143082</v>
+        <v>0.1172781182984016</v>
       </c>
       <c r="F32">
-        <v>0.2607863068833163</v>
+        <v>0.27806429205994</v>
       </c>
       <c r="G32">
-        <v>0.1072147320169007</v>
+        <v>0.1206273643424679</v>
       </c>
       <c r="H32">
-        <v>0.08658552754519187</v>
-      </c>
-      <c r="I32">
-        <v>0.09816824542200395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.09579789778188373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2249876947145117</v>
+        <v>0.2654641339085779</v>
       </c>
       <c r="C33">
-        <v>0.1523882536692674</v>
+        <v>0.1849096148375492</v>
       </c>
       <c r="D33">
-        <v>0.04672352657354304</v>
+        <v>0.05398940387735118</v>
       </c>
       <c r="E33">
-        <v>0.0456928517850009</v>
+        <v>0.0531396569356162</v>
       </c>
       <c r="F33">
-        <v>0.02978732241859023</v>
+        <v>0.03530478686961985</v>
       </c>
       <c r="G33">
-        <v>0.1837773441948828</v>
+        <v>0.2178261946513112</v>
       </c>
       <c r="H33">
-        <v>0.1544613825670667</v>
-      </c>
-      <c r="I33">
-        <v>0.1621816240771373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1893662089199745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1011215025188439</v>
+        <v>0.1092610729616563</v>
       </c>
       <c r="C34">
-        <v>0.09687320332535274</v>
+        <v>0.1049518564717512</v>
       </c>
       <c r="D34">
-        <v>0.1606161643311505</v>
+        <v>0.1747822286588629</v>
       </c>
       <c r="E34">
-        <v>0.1591984055574522</v>
+        <v>0.177470772491382</v>
       </c>
       <c r="F34">
-        <v>0.1913169602680243</v>
+        <v>0.2072999040192076</v>
       </c>
       <c r="G34">
-        <v>0.09401870661242465</v>
+        <v>0.1040477518309528</v>
       </c>
       <c r="H34">
-        <v>0.1140891457160128</v>
-      </c>
-      <c r="I34">
-        <v>0.08276591167073886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1221864135661873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.07574115039046425</v>
+        <v>0.0827072666992356</v>
       </c>
       <c r="C35">
-        <v>0.1184731082470546</v>
+        <v>0.1286027198657545</v>
       </c>
       <c r="D35">
-        <v>0.1311765040416628</v>
+        <v>0.142983969987248</v>
       </c>
       <c r="E35">
-        <v>0.1163098921504726</v>
+        <v>0.1250128011580311</v>
       </c>
       <c r="F35">
-        <v>0.3104254115482341</v>
+        <v>0.3330139178941258</v>
       </c>
       <c r="G35">
-        <v>0.08501509928686739</v>
+        <v>0.08972886044396063</v>
       </c>
       <c r="H35">
-        <v>0.08776607560738503</v>
-      </c>
-      <c r="I35">
-        <v>0.07509275872785932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.0979504639516442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.07375999983149968</v>
+        <v>0.07981549479703907</v>
       </c>
       <c r="C36">
-        <v>0.07589859307392087</v>
+        <v>0.0827528077034216</v>
       </c>
       <c r="D36">
-        <v>0.1611490053268468</v>
+        <v>0.1688616276873625</v>
       </c>
       <c r="E36">
-        <v>0.131377236575788</v>
+        <v>0.138450283411683</v>
       </c>
       <c r="F36">
-        <v>0.2731475564805669</v>
+        <v>0.3067646887955763</v>
       </c>
       <c r="G36">
-        <v>0.1088879127271598</v>
+        <v>0.1126323450757108</v>
       </c>
       <c r="H36">
-        <v>0.1006130525287387</v>
-      </c>
-      <c r="I36">
-        <v>0.07516664345547928</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1107227525292067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1334936154810562</v>
+        <v>0.1536011827325683</v>
       </c>
       <c r="C37">
-        <v>0.1003038010395789</v>
+        <v>0.1119094214830483</v>
       </c>
       <c r="D37">
-        <v>0.1617442665189683</v>
+        <v>0.1782316817941279</v>
       </c>
       <c r="E37">
-        <v>0.1299855596147513</v>
+        <v>0.1410939523329616</v>
       </c>
       <c r="F37">
-        <v>0.1723659691333534</v>
+        <v>0.1802520815382291</v>
       </c>
       <c r="G37">
-        <v>0.09903351707270498</v>
+        <v>0.1118226954289284</v>
       </c>
       <c r="H37">
-        <v>0.1059431742003385</v>
-      </c>
-      <c r="I37">
-        <v>0.09713009693924846</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1230889846901364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.05723126855568851</v>
+        <v>0.06223727042408878</v>
       </c>
       <c r="C38">
-        <v>0.06987086558070363</v>
+        <v>0.07200667200850486</v>
       </c>
       <c r="D38">
-        <v>0.1774967563577621</v>
+        <v>0.1914703528417188</v>
       </c>
       <c r="E38">
-        <v>0.1290550256757674</v>
+        <v>0.1394057429293376</v>
       </c>
       <c r="F38">
-        <v>0.331855603246617</v>
+        <v>0.3487820448500121</v>
       </c>
       <c r="G38">
-        <v>0.07938262960286062</v>
+        <v>0.08119457402445318</v>
       </c>
       <c r="H38">
-        <v>0.1038915688004518</v>
-      </c>
-      <c r="I38">
-        <v>0.05121628218014901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1049033429218847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.07426377482189635</v>
+        <v>0.07993411586447011</v>
       </c>
       <c r="C39">
-        <v>0.08756142969690181</v>
+        <v>0.09844336986240755</v>
       </c>
       <c r="D39">
-        <v>0.1533724466465146</v>
+        <v>0.1609127941971525</v>
       </c>
       <c r="E39">
-        <v>0.1234222222358908</v>
+        <v>0.1292319397866427</v>
       </c>
       <c r="F39">
-        <v>0.315773623536188</v>
+        <v>0.3445759258802648</v>
       </c>
       <c r="G39">
-        <v>0.08266118800562725</v>
+        <v>0.09170852061583985</v>
       </c>
       <c r="H39">
-        <v>0.08940860607016135</v>
-      </c>
-      <c r="I39">
-        <v>0.07353670898681994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.09519333379322238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.08546162054894868</v>
+        <v>0.09485847273521884</v>
       </c>
       <c r="C40">
-        <v>0.08742621552823088</v>
+        <v>0.09682170517722037</v>
       </c>
       <c r="D40">
-        <v>0.1770425376327277</v>
+        <v>0.1913896786930541</v>
       </c>
       <c r="E40">
-        <v>0.1294458727126885</v>
+        <v>0.1420221718331107</v>
       </c>
       <c r="F40">
-        <v>0.2459880548833707</v>
+        <v>0.2692362455000697</v>
       </c>
       <c r="G40">
-        <v>0.1025597366449476</v>
+        <v>0.1095659910137688</v>
       </c>
       <c r="H40">
-        <v>0.08677972601936465</v>
-      </c>
-      <c r="I40">
-        <v>0.08529623602972151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.09610573504755743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.06046299941871175</v>
+        <v>0.06199978128413309</v>
       </c>
       <c r="C41">
-        <v>0.06427144921749049</v>
+        <v>0.06867669290977528</v>
       </c>
       <c r="D41">
-        <v>0.1908461148488037</v>
+        <v>0.202157957292202</v>
       </c>
       <c r="E41">
-        <v>0.1301137460181662</v>
+        <v>0.1374487973802415</v>
       </c>
       <c r="F41">
-        <v>0.3707616015468843</v>
+        <v>0.3904139880782901</v>
       </c>
       <c r="G41">
-        <v>0.06358473144333047</v>
+        <v>0.0669999300449335</v>
       </c>
       <c r="H41">
-        <v>0.06948543478321377</v>
-      </c>
-      <c r="I41">
-        <v>0.05047392272339944</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.07230285301042451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.09959920274921806</v>
+        <v>0.1107474083331647</v>
       </c>
       <c r="C42">
-        <v>0.1164495054156371</v>
+        <v>0.1326871437737466</v>
       </c>
       <c r="D42">
-        <v>0.1379283180265025</v>
+        <v>0.1597670906567375</v>
       </c>
       <c r="E42">
-        <v>0.1200353587170108</v>
+        <v>0.1374312989698638</v>
       </c>
       <c r="F42">
-        <v>0.1927735447204641</v>
+        <v>0.2046908513320718</v>
       </c>
       <c r="G42">
-        <v>0.1150972765222632</v>
+        <v>0.1298179246078768</v>
       </c>
       <c r="H42">
-        <v>0.1092647174170599</v>
-      </c>
-      <c r="I42">
-        <v>0.1088520764318444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1248582823265387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.05696235844890438</v>
+        <v>0.06310316268746914</v>
       </c>
       <c r="C43">
-        <v>0.06873698450556906</v>
+        <v>0.07610200754814783</v>
       </c>
       <c r="D43">
-        <v>0.1602092745118854</v>
+        <v>0.1671757876504208</v>
       </c>
       <c r="E43">
-        <v>0.1137949507609586</v>
+        <v>0.122172644364893</v>
       </c>
       <c r="F43">
-        <v>0.3799511321461345</v>
+        <v>0.4025120003068685</v>
       </c>
       <c r="G43">
-        <v>0.06901156303704105</v>
+        <v>0.07344822764930872</v>
       </c>
       <c r="H43">
-        <v>0.08622599772096846</v>
-      </c>
-      <c r="I43">
-        <v>0.06510773886853864</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.09548616979289191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.07846321568998031</v>
+        <v>0.08949901104201187</v>
       </c>
       <c r="C44">
-        <v>0.09752095208145176</v>
+        <v>0.1052509265487933</v>
       </c>
       <c r="D44">
-        <v>0.159278341852237</v>
+        <v>0.1713710747748609</v>
       </c>
       <c r="E44">
-        <v>0.1334704243293453</v>
+        <v>0.1465166135502701</v>
       </c>
       <c r="F44">
-        <v>0.2953118572162761</v>
+        <v>0.3070909521458288</v>
       </c>
       <c r="G44">
-        <v>0.07810314512545521</v>
+        <v>0.08677453056615037</v>
       </c>
       <c r="H44">
-        <v>0.08717012717529359</v>
-      </c>
-      <c r="I44">
-        <v>0.07068193652996073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.09349689137208461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.07947815671646553</v>
+        <v>0.0930210009952215</v>
       </c>
       <c r="C45">
-        <v>0.07501740933715094</v>
+        <v>0.07615646277849793</v>
       </c>
       <c r="D45">
-        <v>0.1489200564715916</v>
+        <v>0.1654883181167183</v>
       </c>
       <c r="E45">
-        <v>0.1032811106254864</v>
+        <v>0.1186016725889969</v>
       </c>
       <c r="F45">
-        <v>0.3291359833907658</v>
+        <v>0.347167038435046</v>
       </c>
       <c r="G45">
-        <v>0.07967739838861541</v>
+        <v>0.08797682506163143</v>
       </c>
       <c r="H45">
-        <v>0.1060464695246096</v>
-      </c>
-      <c r="I45">
-        <v>0.07844341554531484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1115886820238878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1972777273378598</v>
+        <v>0.228113311117387</v>
       </c>
       <c r="C46">
-        <v>0.1398419574969711</v>
+        <v>0.1652800214655907</v>
       </c>
       <c r="D46">
-        <v>0.08376954600426634</v>
+        <v>0.09653882130841755</v>
       </c>
       <c r="E46">
-        <v>0.08086084755836857</v>
+        <v>0.0938186892944604</v>
       </c>
       <c r="F46">
-        <v>0.03364316052825683</v>
+        <v>0.03679177968111542</v>
       </c>
       <c r="G46">
-        <v>0.1666557241017431</v>
+        <v>0.1955506083160674</v>
       </c>
       <c r="H46">
-        <v>0.1537772079934512</v>
-      </c>
-      <c r="I46">
-        <v>0.144173828979083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1839067688169613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1689140371552237</v>
+        <v>0.1984450870362363</v>
       </c>
       <c r="C47">
-        <v>0.143764967635864</v>
+        <v>0.1614952368272848</v>
       </c>
       <c r="D47">
-        <v>0.1169005875103209</v>
+        <v>0.1293727626981938</v>
       </c>
       <c r="E47">
-        <v>0.1180032424212511</v>
+        <v>0.1320070518078266</v>
       </c>
       <c r="F47">
-        <v>0.07061825814935707</v>
+        <v>0.08441962716866036</v>
       </c>
       <c r="G47">
-        <v>0.1425865955920959</v>
+        <v>0.1633746883932861</v>
       </c>
       <c r="H47">
-        <v>0.1127697682467221</v>
-      </c>
-      <c r="I47">
-        <v>0.1264425432891653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1308855460685121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.2195572431875294</v>
+        <v>0.2855916803975196</v>
       </c>
       <c r="C48">
-        <v>0.1096576323719641</v>
+        <v>0.1466855860561938</v>
       </c>
       <c r="D48">
-        <v>0.02500402281093457</v>
+        <v>0.03385209538918472</v>
       </c>
       <c r="E48">
-        <v>0.01686712486436304</v>
+        <v>0.02327059132158784</v>
       </c>
       <c r="F48">
-        <v>0.02157766861483248</v>
+        <v>0.0285717370890966</v>
       </c>
       <c r="G48">
-        <v>0.1812287549305335</v>
+        <v>0.2458429951587669</v>
       </c>
       <c r="H48">
-        <v>0.1930951767202846</v>
-      </c>
-      <c r="I48">
-        <v>0.2330123764995582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.2361853145876505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1498058357785618</v>
+        <v>0.1682524129655967</v>
       </c>
       <c r="C49">
-        <v>0.1568593581789838</v>
+        <v>0.1799226062095672</v>
       </c>
       <c r="D49">
-        <v>0.1219080967973324</v>
+        <v>0.1424993536255172</v>
       </c>
       <c r="E49">
-        <v>0.1081809405256716</v>
+        <v>0.1271489165219055</v>
       </c>
       <c r="F49">
-        <v>0.09280258088684452</v>
+        <v>0.09974821627458834</v>
       </c>
       <c r="G49">
-        <v>0.136804441936672</v>
+        <v>0.1561534615677934</v>
       </c>
       <c r="H49">
-        <v>0.1096580760121348</v>
-      </c>
-      <c r="I49">
-        <v>0.1239806698837991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1262750328350314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.07495215279538205</v>
+        <v>0.08365221963481821</v>
       </c>
       <c r="C50">
-        <v>0.07724057482675406</v>
+        <v>0.0804723127444948</v>
       </c>
       <c r="D50">
-        <v>0.1380084152698333</v>
+        <v>0.1510769844013781</v>
       </c>
       <c r="E50">
-        <v>0.1157056366116043</v>
+        <v>0.1291350541889925</v>
       </c>
       <c r="F50">
-        <v>0.3297712855608969</v>
+        <v>0.3589597587347924</v>
       </c>
       <c r="G50">
-        <v>0.08314492603294435</v>
+        <v>0.08991295779038158</v>
       </c>
       <c r="H50">
-        <v>0.09839583065058936</v>
-      </c>
-      <c r="I50">
-        <v>0.08278117825199578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1067907125051424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.14427159820995</v>
+        <v>0.1615591334391486</v>
       </c>
       <c r="C51">
-        <v>0.1288893144968115</v>
+        <v>0.1484798913629333</v>
       </c>
       <c r="D51">
-        <v>0.10525600527955</v>
+        <v>0.1177059320478773</v>
       </c>
       <c r="E51">
-        <v>0.1029211001904024</v>
+        <v>0.115186898517577</v>
       </c>
       <c r="F51">
-        <v>0.1029655377672218</v>
+        <v>0.1117304382960263</v>
       </c>
       <c r="G51">
-        <v>0.1589156388407313</v>
+        <v>0.1763457394291179</v>
       </c>
       <c r="H51">
-        <v>0.1478211764186527</v>
-      </c>
-      <c r="I51">
-        <v>0.1089596287966803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1689919669073195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.2943296189106683</v>
+        <v>0.3512745350247962</v>
       </c>
       <c r="C52">
-        <v>0.1245597129140741</v>
+        <v>0.1325669383009696</v>
       </c>
       <c r="D52">
-        <v>0.0680193460460401</v>
+        <v>0.07243415449298131</v>
       </c>
       <c r="E52">
-        <v>0.06908340889444622</v>
+        <v>0.07399623133682429</v>
       </c>
       <c r="F52">
-        <v>0.03333178883254612</v>
+        <v>0.03833096065590889</v>
       </c>
       <c r="G52">
-        <v>0.1426769387727787</v>
+        <v>0.1687535815601965</v>
       </c>
       <c r="H52">
-        <v>0.1389937699533734</v>
-      </c>
-      <c r="I52">
-        <v>0.129005415676073</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1626435986283233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1720861349557001</v>
+        <v>0.1951584552201611</v>
       </c>
       <c r="C53">
-        <v>0.1015430391330403</v>
+        <v>0.1136779549995633</v>
       </c>
       <c r="D53">
-        <v>0.1405030592299085</v>
+        <v>0.1581620520142044</v>
       </c>
       <c r="E53">
-        <v>0.1390151372058656</v>
+        <v>0.1532843158122487</v>
       </c>
       <c r="F53">
-        <v>0.09956511540735938</v>
+        <v>0.1123462878355949</v>
       </c>
       <c r="G53">
-        <v>0.1451627611729914</v>
+        <v>0.167672926766584</v>
       </c>
       <c r="H53">
-        <v>0.0892073654840414</v>
-      </c>
-      <c r="I53">
-        <v>0.1129173874110933</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.09969800735164368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.07162426901316875</v>
+        <v>0.07546061914218191</v>
       </c>
       <c r="C54">
-        <v>0.08316121411058275</v>
+        <v>0.08698532759404233</v>
       </c>
       <c r="D54">
-        <v>0.1625233829463962</v>
+        <v>0.1650194520113817</v>
       </c>
       <c r="E54">
-        <v>0.1150026013513711</v>
+        <v>0.1146535153808252</v>
       </c>
       <c r="F54">
-        <v>0.3416652182984751</v>
+        <v>0.3762537433390456</v>
       </c>
       <c r="G54">
-        <v>0.08369074241774316</v>
+        <v>0.08821841075714353</v>
       </c>
       <c r="H54">
-        <v>0.08326698730197829</v>
-      </c>
-      <c r="I54">
-        <v>0.05906558456028461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.09340893177537971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.07521369744209636</v>
+        <v>0.07835950461523265</v>
       </c>
       <c r="C55">
-        <v>0.06668224869523386</v>
+        <v>0.07295029125063565</v>
       </c>
       <c r="D55">
-        <v>0.1820136775755243</v>
+        <v>0.1953089121050056</v>
       </c>
       <c r="E55">
-        <v>0.122280590229906</v>
+        <v>0.1286246694297858</v>
       </c>
       <c r="F55">
-        <v>0.3432838716577838</v>
+        <v>0.3610588183978902</v>
       </c>
       <c r="G55">
-        <v>0.07500277018646728</v>
+        <v>0.07931495945692048</v>
       </c>
       <c r="H55">
-        <v>0.0794278664310072</v>
-      </c>
-      <c r="I55">
-        <v>0.05609527778198116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0843828447445296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.08350135810271837</v>
+        <v>0.09204160764030635</v>
       </c>
       <c r="C56">
-        <v>0.08783948691373342</v>
+        <v>0.09127199837324822</v>
       </c>
       <c r="D56">
-        <v>0.1846561501642284</v>
+        <v>0.1892928666881223</v>
       </c>
       <c r="E56">
-        <v>0.1171739539978143</v>
+        <v>0.120412352214189</v>
       </c>
       <c r="F56">
-        <v>0.2932157527075416</v>
+        <v>0.328131897859185</v>
       </c>
       <c r="G56">
-        <v>0.07529488413725129</v>
+        <v>0.08334278273522756</v>
       </c>
       <c r="H56">
-        <v>0.09095508786670066</v>
-      </c>
-      <c r="I56">
-        <v>0.06736332611001189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.0955064944897215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.05988372050477914</v>
+        <v>0.06422186422310652</v>
       </c>
       <c r="C57">
-        <v>0.07276902716321723</v>
+        <v>0.07660479300477094</v>
       </c>
       <c r="D57">
-        <v>0.1858364862961287</v>
+        <v>0.1938632738269739</v>
       </c>
       <c r="E57">
-        <v>0.1287988184898745</v>
+        <v>0.1369693677558932</v>
       </c>
       <c r="F57">
-        <v>0.2914729428236586</v>
+        <v>0.3156475284118722</v>
       </c>
       <c r="G57">
-        <v>0.08337314988362557</v>
+        <v>0.0882538111154107</v>
       </c>
       <c r="H57">
-        <v>0.119464605962923</v>
-      </c>
-      <c r="I57">
-        <v>0.05840124887579333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1244393616619725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1201366695634704</v>
+        <v>0.1365364363048115</v>
       </c>
       <c r="C58">
-        <v>0.157589198667405</v>
+        <v>0.1866768783831596</v>
       </c>
       <c r="D58">
-        <v>0.10426168417105</v>
+        <v>0.1213307986704997</v>
       </c>
       <c r="E58">
-        <v>0.1384219171475879</v>
+        <v>0.1583905344540898</v>
       </c>
       <c r="F58">
-        <v>0.05997933822050264</v>
+        <v>0.06675238294014163</v>
       </c>
       <c r="G58">
-        <v>0.1378166120040189</v>
+        <v>0.1557015641671207</v>
       </c>
       <c r="H58">
-        <v>0.144199655381324</v>
-      </c>
-      <c r="I58">
-        <v>0.1375949248446411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1746114050801771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.03309893337902084</v>
+        <v>0.03876615445986331</v>
       </c>
       <c r="C59">
-        <v>0.06261924022038451</v>
+        <v>0.06817814661456847</v>
       </c>
       <c r="D59">
-        <v>0.1635099594088725</v>
+        <v>0.1757980585886919</v>
       </c>
       <c r="E59">
-        <v>0.1099190805136663</v>
+        <v>0.116413815232375</v>
       </c>
       <c r="F59">
-        <v>0.4471388871346423</v>
+        <v>0.4552643446013918</v>
       </c>
       <c r="G59">
-        <v>0.05223963420895599</v>
+        <v>0.05226264861048712</v>
       </c>
       <c r="H59">
-        <v>0.09008901873740875</v>
-      </c>
-      <c r="I59">
-        <v>0.04138524639704882</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.09331683189262233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.03587070637426532</v>
+        <v>0.03642798254760021</v>
       </c>
       <c r="C60">
-        <v>0.07752262168068248</v>
+        <v>0.07937556303317514</v>
       </c>
       <c r="D60">
-        <v>0.1281597012755568</v>
+        <v>0.1320874824055326</v>
       </c>
       <c r="E60">
-        <v>0.07626871581145696</v>
+        <v>0.07772223711245521</v>
       </c>
       <c r="F60">
-        <v>0.5679069893379476</v>
+        <v>0.5775645231740373</v>
       </c>
       <c r="G60">
-        <v>0.02301578127368238</v>
+        <v>0.0258488905084215</v>
       </c>
       <c r="H60">
-        <v>0.06319386590472399</v>
-      </c>
-      <c r="I60">
-        <v>0.02806161834168451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.07097332121877804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1572580020716021</v>
+        <v>0.1865641789644496</v>
       </c>
       <c r="C61">
-        <v>0.1301062540936192</v>
+        <v>0.1494016439870263</v>
       </c>
       <c r="D61">
-        <v>0.10327953603743</v>
+        <v>0.1164495450724802</v>
       </c>
       <c r="E61">
-        <v>0.1275861488608905</v>
+        <v>0.1477605848378352</v>
       </c>
       <c r="F61">
-        <v>0.07060064782408564</v>
+        <v>0.07696433423157366</v>
       </c>
       <c r="G61">
-        <v>0.1364592877820012</v>
+        <v>0.1555349785288529</v>
       </c>
       <c r="H61">
-        <v>0.147286163288099</v>
-      </c>
-      <c r="I61">
-        <v>0.1274239600422724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.167324734377782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1131048394392128</v>
+        <v>0.1270709715386156</v>
       </c>
       <c r="C62">
-        <v>0.1002494802989857</v>
+        <v>0.107108698585549</v>
       </c>
       <c r="D62">
-        <v>0.1716026421857632</v>
+        <v>0.188085211270477</v>
       </c>
       <c r="E62">
-        <v>0.1450086766429281</v>
+        <v>0.1593850923377664</v>
       </c>
       <c r="F62">
-        <v>0.1724261918987542</v>
+        <v>0.1920669280551852</v>
       </c>
       <c r="G62">
-        <v>0.1009720559292222</v>
+        <v>0.1127312465101372</v>
       </c>
       <c r="H62">
-        <v>0.1005510744253875</v>
-      </c>
-      <c r="I62">
-        <v>0.09608503917974626</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1135518517022695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.2675673315027455</v>
+        <v>0.2966043506705454</v>
       </c>
       <c r="C63">
-        <v>0.2504199912659531</v>
+        <v>0.2860251033919949</v>
       </c>
       <c r="D63">
-        <v>0.02436562397988679</v>
+        <v>0.02285731151668509</v>
       </c>
       <c r="E63">
-        <v>0.02396530144755696</v>
+        <v>0.02237067114035137</v>
       </c>
       <c r="F63">
-        <v>0.01683381476414115</v>
+        <v>0.01583750001776576</v>
       </c>
       <c r="G63">
-        <v>0.1673233530921099</v>
+        <v>0.1876876039220312</v>
       </c>
       <c r="H63">
-        <v>0.156398889462054</v>
-      </c>
-      <c r="I63">
-        <v>0.09312569448555258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1686174593406265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1178413239375169</v>
+        <v>0.134008280866566</v>
       </c>
       <c r="C64">
-        <v>0.1168448788847351</v>
+        <v>0.1313492446818584</v>
       </c>
       <c r="D64">
-        <v>0.1674038697011901</v>
+        <v>0.1857317479185557</v>
       </c>
       <c r="E64">
-        <v>0.1544038563163661</v>
+        <v>0.1728827343791512</v>
       </c>
       <c r="F64">
-        <v>0.09879422004040321</v>
+        <v>0.1068524341617699</v>
       </c>
       <c r="G64">
-        <v>0.120163293718066</v>
+        <v>0.134995127144287</v>
       </c>
       <c r="H64">
-        <v>0.1186184483795346</v>
-      </c>
-      <c r="I64">
-        <v>0.1059301090221882</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1341804308478119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.3697929198498523</v>
+        <v>0.4583235268065391</v>
       </c>
       <c r="C65">
-        <v>0.1281169307667142</v>
+        <v>0.1505068251207965</v>
       </c>
       <c r="D65">
-        <v>0.05495702883900992</v>
+        <v>0.0560975333802099</v>
       </c>
       <c r="E65">
-        <v>0.04831405367624341</v>
+        <v>0.04753105907444127</v>
       </c>
       <c r="F65">
-        <v>0.04847210969055983</v>
+        <v>0.04982987729467646</v>
       </c>
       <c r="G65">
-        <v>0.1101671682496891</v>
+        <v>0.126599835223647</v>
       </c>
       <c r="H65">
-        <v>0.09905613322646677</v>
-      </c>
-      <c r="I65">
-        <v>0.1411236557014644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1111113430996897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.05547699311963558</v>
+        <v>0.05918036937774256</v>
       </c>
       <c r="C66">
-        <v>0.1119882842371787</v>
+        <v>0.1242132353812886</v>
       </c>
       <c r="D66">
-        <v>0.1360322430637247</v>
+        <v>0.1505502804026582</v>
       </c>
       <c r="E66">
-        <v>0.09538154015097654</v>
+        <v>0.106677951137272</v>
       </c>
       <c r="F66">
-        <v>0.3075162952283339</v>
+        <v>0.3483798996960392</v>
       </c>
       <c r="G66">
-        <v>0.08398180014264528</v>
+        <v>0.09284916947242887</v>
       </c>
       <c r="H66">
-        <v>0.1061087345901889</v>
-      </c>
-      <c r="I66">
-        <v>0.1035141094673165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1181490945325706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0990661581238749</v>
+        <v>0.1096887600044243</v>
       </c>
       <c r="C67">
-        <v>0.09476048684386416</v>
+        <v>0.1070023709338413</v>
       </c>
       <c r="D67">
-        <v>0.1560142038768371</v>
+        <v>0.1700524470341292</v>
       </c>
       <c r="E67">
-        <v>0.1206648723064996</v>
+        <v>0.1340510047048615</v>
       </c>
       <c r="F67">
-        <v>0.2189371696254648</v>
+        <v>0.2421974739957992</v>
       </c>
       <c r="G67">
-        <v>0.1119310019710937</v>
+        <v>0.1161277176860022</v>
       </c>
       <c r="H67">
-        <v>0.1143412109505676</v>
-      </c>
-      <c r="I67">
-        <v>0.08428489630179818</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1208802256409423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.3215947237734487</v>
+        <v>0.3897434231005918</v>
       </c>
       <c r="C68">
-        <v>0.1509029024159541</v>
+        <v>0.1952143668101582</v>
       </c>
       <c r="D68">
-        <v>0.0333929314437123</v>
+        <v>0.03848101316519833</v>
       </c>
       <c r="E68">
-        <v>0.03456025890201525</v>
+        <v>0.03990291910586063</v>
       </c>
       <c r="F68">
-        <v>0.01869873749127767</v>
+        <v>0.02279719348213656</v>
       </c>
       <c r="G68">
-        <v>0.1389358575108622</v>
+        <v>0.1776286970307996</v>
       </c>
       <c r="H68">
-        <v>0.1115998348015276</v>
-      </c>
-      <c r="I68">
-        <v>0.1903147536612022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1362323873052549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.07633511781982433</v>
+        <v>0.07738527082378638</v>
       </c>
       <c r="C69">
-        <v>0.08116199902590203</v>
+        <v>0.09126212486720414</v>
       </c>
       <c r="D69">
-        <v>0.1604663945356601</v>
+        <v>0.1684543335366169</v>
       </c>
       <c r="E69">
-        <v>0.1248164708153482</v>
+        <v>0.1385969570899397</v>
       </c>
       <c r="F69">
-        <v>0.3084337584957105</v>
+        <v>0.3315264053546289</v>
       </c>
       <c r="G69">
-        <v>0.0975248208679573</v>
+        <v>0.100713821911299</v>
       </c>
       <c r="H69">
-        <v>0.09208939889788725</v>
-      </c>
-      <c r="I69">
-        <v>0.05917203954171042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.09206108641652519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.09765461579433277</v>
+        <v>0.1063525953623305</v>
       </c>
       <c r="C70">
-        <v>0.1044006691651411</v>
+        <v>0.1171996239812896</v>
       </c>
       <c r="D70">
-        <v>0.1763693308624402</v>
+        <v>0.1955110079166729</v>
       </c>
       <c r="E70">
-        <v>0.1573169195090824</v>
+        <v>0.1747276795489971</v>
       </c>
       <c r="F70">
-        <v>0.1363661495529491</v>
+        <v>0.1490664493566312</v>
       </c>
       <c r="G70">
-        <v>0.1018932796725238</v>
+        <v>0.1135602463530143</v>
       </c>
       <c r="H70">
-        <v>0.1304848847597808</v>
-      </c>
-      <c r="I70">
-        <v>0.09551415068374995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1435823974810645</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1285703365642659</v>
+        <v>0.1489769175521088</v>
       </c>
       <c r="C71">
-        <v>0.1413408237445905</v>
+        <v>0.1616485692302049</v>
       </c>
       <c r="D71">
-        <v>0.1307609696685033</v>
+        <v>0.1506095936819271</v>
       </c>
       <c r="E71">
-        <v>0.1267872753075082</v>
+        <v>0.141103427054734</v>
       </c>
       <c r="F71">
-        <v>0.1123077130872707</v>
+        <v>0.1275062778994545</v>
       </c>
       <c r="G71">
-        <v>0.1136825732467442</v>
+        <v>0.1327528295281964</v>
       </c>
       <c r="H71">
-        <v>0.1247022651373324</v>
-      </c>
-      <c r="I71">
-        <v>0.1218480432437846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1374023850533742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1199653597944508</v>
+        <v>0.1283969259047596</v>
       </c>
       <c r="C72">
-        <v>0.09187951183025113</v>
+        <v>0.1034547453621228</v>
       </c>
       <c r="D72">
-        <v>0.1432595609233144</v>
+        <v>0.1590548402851864</v>
       </c>
       <c r="E72">
-        <v>0.1161998102706526</v>
+        <v>0.1300786825558531</v>
       </c>
       <c r="F72">
-        <v>0.2558078679408402</v>
+        <v>0.2709875329693945</v>
       </c>
       <c r="G72">
-        <v>0.09535423552350376</v>
+        <v>0.1025332184816519</v>
       </c>
       <c r="H72">
-        <v>0.09612617830506327</v>
-      </c>
-      <c r="I72">
-        <v>0.081407475411924</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1054940544410318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.08922904638647812</v>
+        <v>0.09169269510126898</v>
       </c>
       <c r="C73">
-        <v>0.0701971624770327</v>
+        <v>0.07890709273852795</v>
       </c>
       <c r="D73">
-        <v>0.1604898615084556</v>
+        <v>0.1631469324273484</v>
       </c>
       <c r="E73">
-        <v>0.1181987953760968</v>
+        <v>0.1234578657872951</v>
       </c>
       <c r="F73">
-        <v>0.3318109943743864</v>
+        <v>0.3616191998193609</v>
       </c>
       <c r="G73">
-        <v>0.07924928111983295</v>
+        <v>0.09149334362816067</v>
       </c>
       <c r="H73">
-        <v>0.08026527285000803</v>
-      </c>
-      <c r="I73">
-        <v>0.07055958590770937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.0896828704980379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2180813030055674</v>
+        <v>0.2614668654948447</v>
       </c>
       <c r="C74">
-        <v>0.1933061786437296</v>
+        <v>0.2317628938943994</v>
       </c>
       <c r="D74">
-        <v>0.01208295214583009</v>
+        <v>0.01403732755319717</v>
       </c>
       <c r="E74">
-        <v>0.01042640902795387</v>
+        <v>0.01268398286595611</v>
       </c>
       <c r="F74">
-        <v>0.01058796521758149</v>
+        <v>0.01252163724922873</v>
       </c>
       <c r="G74">
-        <v>0.2070138902734767</v>
+        <v>0.2481976631742654</v>
       </c>
       <c r="H74">
-        <v>0.1884749815436171</v>
-      </c>
-      <c r="I74">
-        <v>0.1600263201422439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.2193296297681084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.158123911746682</v>
+        <v>0.1867600535277881</v>
       </c>
       <c r="C75">
-        <v>0.130839772648741</v>
+        <v>0.152396117178267</v>
       </c>
       <c r="D75">
-        <v>0.1098738920709908</v>
+        <v>0.1270273748016725</v>
       </c>
       <c r="E75">
-        <v>0.09552244399251229</v>
+        <v>0.1204808597818332</v>
       </c>
       <c r="F75">
-        <v>0.05917250651759795</v>
+        <v>0.06932680482885992</v>
       </c>
       <c r="G75">
-        <v>0.1174817832822902</v>
+        <v>0.1426913396172021</v>
       </c>
       <c r="H75">
-        <v>0.1601442250984154</v>
-      </c>
-      <c r="I75">
-        <v>0.1688414646427703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.2013174502643772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1145797866819289</v>
+        <v>0.1302071787797687</v>
       </c>
       <c r="C76">
-        <v>0.1766538870196211</v>
+        <v>0.2032108883709682</v>
       </c>
       <c r="D76">
-        <v>0.1171995842185335</v>
+        <v>0.1340853851972328</v>
       </c>
       <c r="E76">
-        <v>0.1183854475011125</v>
+        <v>0.1326958981418118</v>
       </c>
       <c r="F76">
-        <v>0.07631884276859768</v>
+        <v>0.09082534908404107</v>
       </c>
       <c r="G76">
-        <v>0.1367889209779635</v>
+        <v>0.1519006615453652</v>
       </c>
       <c r="H76">
-        <v>0.1363004870815313</v>
-      </c>
-      <c r="I76">
-        <v>0.1237730437507116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1570746388808123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.221982571878124</v>
+        <v>0.2676970838581064</v>
       </c>
       <c r="C77">
-        <v>0.1614422478352684</v>
+        <v>0.1932588843082579</v>
       </c>
       <c r="D77">
-        <v>0.03600447571010483</v>
+        <v>0.04283622643710647</v>
       </c>
       <c r="E77">
-        <v>0.0379804231935932</v>
+        <v>0.04475505793033573</v>
       </c>
       <c r="F77">
-        <v>0.01820051086166237</v>
+        <v>0.02249685946832959</v>
       </c>
       <c r="G77">
-        <v>0.1877571572408598</v>
+        <v>0.2269237529697626</v>
       </c>
       <c r="H77">
-        <v>0.1684371848241082</v>
-      </c>
-      <c r="I77">
-        <v>0.1681954284562792</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.2020321350281013</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.09130874972096387</v>
+        <v>0.09724934852051462</v>
       </c>
       <c r="C78">
-        <v>0.1026635600668507</v>
+        <v>0.1103838067210743</v>
       </c>
       <c r="D78">
-        <v>0.1553541609499002</v>
+        <v>0.1681949703268369</v>
       </c>
       <c r="E78">
-        <v>0.1604719006379631</v>
+        <v>0.1692135632746719</v>
       </c>
       <c r="F78">
-        <v>0.2019920370021021</v>
+        <v>0.224273244338816</v>
       </c>
       <c r="G78">
-        <v>0.08181520510269136</v>
+        <v>0.09132414920312301</v>
       </c>
       <c r="H78">
-        <v>0.1301472843897945</v>
-      </c>
-      <c r="I78">
-        <v>0.07624710212973412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1393609176149633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1050349817471936</v>
+        <v>0.1180408965684182</v>
       </c>
       <c r="C79">
-        <v>0.1308409429479548</v>
+        <v>0.1466548115074256</v>
       </c>
       <c r="D79">
-        <v>0.156522390822914</v>
+        <v>0.1758491796818922</v>
       </c>
       <c r="E79">
-        <v>0.1524989570166626</v>
+        <v>0.1718575482614539</v>
       </c>
       <c r="F79">
-        <v>0.1171716829455948</v>
+        <v>0.1300891356506294</v>
       </c>
       <c r="G79">
-        <v>0.1061552756878007</v>
+        <v>0.1171126720542182</v>
       </c>
       <c r="H79">
-        <v>0.1224777379234738</v>
-      </c>
-      <c r="I79">
-        <v>0.1092980309084059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1403957562759623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1434500547373569</v>
+        <v>0.1640584909265397</v>
       </c>
       <c r="C80">
-        <v>0.108592553763519</v>
+        <v>0.1253582586708329</v>
       </c>
       <c r="D80">
-        <v>0.1053128571083379</v>
+        <v>0.1241558591747338</v>
       </c>
       <c r="E80">
-        <v>0.1197503991060152</v>
+        <v>0.138285153139355</v>
       </c>
       <c r="F80">
-        <v>0.176366011096095</v>
+        <v>0.221181438098154</v>
       </c>
       <c r="G80">
-        <v>0.1017891185501797</v>
+        <v>0.1137654314151651</v>
       </c>
       <c r="H80">
-        <v>0.1031262274683584</v>
-      </c>
-      <c r="I80">
-        <v>0.1416127781701379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1131953685752197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.08986323171759546</v>
+        <v>0.1006480458594729</v>
       </c>
       <c r="C81">
-        <v>0.1074681605442714</v>
+        <v>0.119083016314735</v>
       </c>
       <c r="D81">
-        <v>0.1832211651108779</v>
+        <v>0.2022381398065312</v>
       </c>
       <c r="E81">
-        <v>0.1601465010717459</v>
+        <v>0.1788836236538087</v>
       </c>
       <c r="F81">
-        <v>0.1235800404979148</v>
+        <v>0.1342294639993656</v>
       </c>
       <c r="G81">
-        <v>0.1129347969400359</v>
+        <v>0.1266505279338582</v>
       </c>
       <c r="H81">
-        <v>0.1272243762552469</v>
-      </c>
-      <c r="I81">
-        <v>0.09556172786231182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1382671824322286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.08627223025219236</v>
+        <v>0.09052668824853066</v>
       </c>
       <c r="C82">
-        <v>0.09325434657517408</v>
+        <v>0.1041118295266691</v>
       </c>
       <c r="D82">
-        <v>0.1598496339298638</v>
+        <v>0.1781789517403358</v>
       </c>
       <c r="E82">
-        <v>0.1398113055536189</v>
+        <v>0.1566501246250789</v>
       </c>
       <c r="F82">
-        <v>0.2582670192063592</v>
+        <v>0.2848086868093337</v>
       </c>
       <c r="G82">
-        <v>0.08553824681267845</v>
+        <v>0.08951169273477586</v>
       </c>
       <c r="H82">
-        <v>0.09333767193117364</v>
-      </c>
-      <c r="I82">
-        <v>0.08366954573893952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.09621202631527596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1180284803746786</v>
+        <v>0.1369651662023595</v>
       </c>
       <c r="C83">
-        <v>0.1190085881071605</v>
+        <v>0.1305723952532968</v>
       </c>
       <c r="D83">
-        <v>0.1127013697075033</v>
+        <v>0.1307581012990517</v>
       </c>
       <c r="E83">
-        <v>0.109862101410754</v>
+        <v>0.1269008772840471</v>
       </c>
       <c r="F83">
-        <v>0.2024757347598956</v>
+        <v>0.2131600549896918</v>
       </c>
       <c r="G83">
-        <v>0.1139489629049448</v>
+        <v>0.1312158683233848</v>
       </c>
       <c r="H83">
-        <v>0.1154880084059237</v>
-      </c>
-      <c r="I83">
-        <v>0.1084867543291396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1304275366481683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.08756810024238618</v>
+        <v>0.09530377182103472</v>
       </c>
       <c r="C84">
-        <v>0.09104066956756351</v>
+        <v>0.0976400529565639</v>
       </c>
       <c r="D84">
-        <v>0.1486785607635552</v>
+        <v>0.1655344293020499</v>
       </c>
       <c r="E84">
-        <v>0.1398161841862843</v>
+        <v>0.1563272045765545</v>
       </c>
       <c r="F84">
-        <v>0.2718642657983772</v>
+        <v>0.2854296356431689</v>
       </c>
       <c r="G84">
-        <v>0.09256740556958912</v>
+        <v>0.09967031231419315</v>
       </c>
       <c r="H84">
-        <v>0.08841847265653884</v>
-      </c>
-      <c r="I84">
-        <v>0.08004634121570559</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1000945933864349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.125065651489783</v>
+        <v>0.1372126274917238</v>
       </c>
       <c r="C85">
-        <v>0.1047209617974854</v>
+        <v>0.1141916592145142</v>
       </c>
       <c r="D85">
-        <v>0.1509871208732384</v>
+        <v>0.1631557481120546</v>
       </c>
       <c r="E85">
-        <v>0.1206278976312412</v>
+        <v>0.1325376671235722</v>
       </c>
       <c r="F85">
-        <v>0.198014859301225</v>
+        <v>0.2192391868533489</v>
       </c>
       <c r="G85">
-        <v>0.0864375465122252</v>
+        <v>0.09787463213759165</v>
       </c>
       <c r="H85">
-        <v>0.1278372797727093</v>
-      </c>
-      <c r="I85">
-        <v>0.08630868262209267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1357884790671946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1158076886673802</v>
+        <v>0.1291286677517262</v>
       </c>
       <c r="C86">
-        <v>0.1088137456391091</v>
+        <v>0.1242299121743984</v>
       </c>
       <c r="D86">
-        <v>0.1414014761280846</v>
+        <v>0.1617907632527059</v>
       </c>
       <c r="E86">
-        <v>0.1287260135763129</v>
+        <v>0.1476515394695256</v>
       </c>
       <c r="F86">
-        <v>0.1800577525291686</v>
+        <v>0.1919531976380493</v>
       </c>
       <c r="G86">
-        <v>0.1023359366750074</v>
+        <v>0.1124735699135048</v>
       </c>
       <c r="H86">
-        <v>0.1196492590156595</v>
-      </c>
-      <c r="I86">
-        <v>0.1032081277692777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1327723498000897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.06355561907527692</v>
+        <v>0.07150158797201421</v>
       </c>
       <c r="C87">
-        <v>0.07101844048194726</v>
+        <v>0.07672371330179245</v>
       </c>
       <c r="D87">
-        <v>0.1078547032194716</v>
+        <v>0.1156674341532819</v>
       </c>
       <c r="E87">
-        <v>0.08981250146085422</v>
+        <v>0.09627895715255692</v>
       </c>
       <c r="F87">
-        <v>0.4216663418930308</v>
+        <v>0.4498922310606647</v>
       </c>
       <c r="G87">
-        <v>0.07155519025528607</v>
+        <v>0.07670146468197213</v>
       </c>
       <c r="H87">
-        <v>0.1070563531364059</v>
-      </c>
-      <c r="I87">
-        <v>0.06748085047772742</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1132346116777177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0711062381729468</v>
+        <v>0.08022831495479332</v>
       </c>
       <c r="C88">
-        <v>0.1035024381522403</v>
+        <v>0.1111912435263938</v>
       </c>
       <c r="D88">
-        <v>0.1479996066728669</v>
+        <v>0.1619210481013971</v>
       </c>
       <c r="E88">
-        <v>0.1368349366685459</v>
+        <v>0.1526177468166822</v>
       </c>
       <c r="F88">
-        <v>0.233408818070562</v>
+        <v>0.2513645305921752</v>
       </c>
       <c r="G88">
-        <v>0.113024844553884</v>
+        <v>0.1261587872223308</v>
       </c>
       <c r="H88">
-        <v>0.1090317218624074</v>
-      </c>
-      <c r="I88">
-        <v>0.08509139584654674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1165183287862276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1606436567996726</v>
+        <v>0.1825854004425716</v>
       </c>
       <c r="C89">
-        <v>0.1685605138194002</v>
+        <v>0.1974165618309019</v>
       </c>
       <c r="D89">
-        <v>0.1231278782780659</v>
+        <v>0.140509062670439</v>
       </c>
       <c r="E89">
-        <v>0.1401966565825904</v>
+        <v>0.1605493948496916</v>
       </c>
       <c r="F89">
-        <v>0.09474595317311557</v>
+        <v>0.1102088155824151</v>
       </c>
       <c r="G89">
-        <v>0.09254521465766727</v>
+        <v>0.1053613950989023</v>
       </c>
       <c r="H89">
-        <v>0.08971831679339222</v>
-      </c>
-      <c r="I89">
-        <v>0.1304618098960958</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1033693695250786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.09886936350167656</v>
+        <v>0.1130534417270938</v>
       </c>
       <c r="C90">
-        <v>0.1044312660157553</v>
+        <v>0.1213996894936042</v>
       </c>
       <c r="D90">
-        <v>0.1499219451164465</v>
+        <v>0.1707059845710726</v>
       </c>
       <c r="E90">
-        <v>0.1388448339816436</v>
+        <v>0.1568700341483105</v>
       </c>
       <c r="F90">
-        <v>0.1335304665957504</v>
+        <v>0.1598628946019497</v>
       </c>
       <c r="G90">
-        <v>0.1473486812875965</v>
+        <v>0.1652041228128124</v>
       </c>
       <c r="H90">
-        <v>0.09901597362157485</v>
-      </c>
-      <c r="I90">
-        <v>0.1280374698795562</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1129038326451567</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1178976903391403</v>
+        <v>0.1239512988038125</v>
       </c>
       <c r="C91">
-        <v>0.09530888309917293</v>
+        <v>0.102967797410983</v>
       </c>
       <c r="D91">
-        <v>0.1394676563921806</v>
+        <v>0.1574902493831571</v>
       </c>
       <c r="E91">
-        <v>0.1347859991429202</v>
+        <v>0.1484517560110077</v>
       </c>
       <c r="F91">
-        <v>0.2456250289303309</v>
+        <v>0.2708188454254354</v>
       </c>
       <c r="G91">
-        <v>0.08525367533642929</v>
+        <v>0.09291953772781192</v>
       </c>
       <c r="H91">
-        <v>0.09641643362005622</v>
-      </c>
-      <c r="I91">
-        <v>0.08524463313976945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1034005152377926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1020050662058027</v>
+        <v>0.1082133030428002</v>
       </c>
       <c r="C92">
-        <v>0.08160063699700158</v>
+        <v>0.08951480257689778</v>
       </c>
       <c r="D92">
-        <v>0.156977195788938</v>
+        <v>0.174684452219574</v>
       </c>
       <c r="E92">
-        <v>0.1295604284757782</v>
+        <v>0.1443180139725537</v>
       </c>
       <c r="F92">
-        <v>0.2739796038603105</v>
+        <v>0.2982904015085328</v>
       </c>
       <c r="G92">
-        <v>0.08342329208491504</v>
+        <v>0.08786752200391577</v>
       </c>
       <c r="H92">
-        <v>0.0875809918743706</v>
-      </c>
-      <c r="I92">
-        <v>0.0848727847128833</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.09711150467572581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.07025423278066562</v>
+        <v>0.08153394943865781</v>
       </c>
       <c r="C93">
-        <v>0.0788214414715072</v>
+        <v>0.08200566609701031</v>
       </c>
       <c r="D93">
-        <v>0.1285433936784988</v>
+        <v>0.14212667242366</v>
       </c>
       <c r="E93">
-        <v>0.1165837400083035</v>
+        <v>0.1281500924677908</v>
       </c>
       <c r="F93">
-        <v>0.3511502254463098</v>
+        <v>0.3835290199968597</v>
       </c>
       <c r="G93">
-        <v>0.0861779227002184</v>
+        <v>0.09182210822242501</v>
       </c>
       <c r="H93">
-        <v>0.08871927930138628</v>
-      </c>
-      <c r="I93">
-        <v>0.0797497646131104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.09083249135359638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1838805524909843</v>
+        <v>0.2157927925477025</v>
       </c>
       <c r="C94">
-        <v>0.1758468993867065</v>
+        <v>0.2055443249861301</v>
       </c>
       <c r="D94">
-        <v>0.09298028815165546</v>
+        <v>0.1071385806102337</v>
       </c>
       <c r="E94">
-        <v>0.06775026577078475</v>
+        <v>0.07769774534862194</v>
       </c>
       <c r="F94">
-        <v>0.05848057778792261</v>
+        <v>0.06462349344243326</v>
       </c>
       <c r="G94">
-        <v>0.1484125651562312</v>
+        <v>0.171998527095725</v>
       </c>
       <c r="H94">
-        <v>0.1373286363061724</v>
-      </c>
-      <c r="I94">
-        <v>0.1353202149495427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1572045359691537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1309147101858048</v>
+        <v>0.1476084092728084</v>
       </c>
       <c r="C95">
-        <v>0.09608298832475273</v>
+        <v>0.1073457330679863</v>
       </c>
       <c r="D95">
-        <v>0.1788743993019452</v>
+        <v>0.1953378189047372</v>
       </c>
       <c r="E95">
-        <v>0.1388341224141506</v>
+        <v>0.1505230121241767</v>
       </c>
       <c r="F95">
-        <v>0.1761723195242875</v>
+        <v>0.1840336130428036</v>
       </c>
       <c r="G95">
-        <v>0.09243950445256022</v>
+        <v>0.1068845507313715</v>
       </c>
       <c r="H95">
-        <v>0.0956451631515311</v>
-      </c>
-      <c r="I95">
-        <v>0.09103679264496795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1082668628561164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0592845962951452</v>
+        <v>0.06623457664050258</v>
       </c>
       <c r="C96">
-        <v>0.07243654204934658</v>
+        <v>0.0795596116512543</v>
       </c>
       <c r="D96">
-        <v>0.135093157460299</v>
+        <v>0.1379351416347992</v>
       </c>
       <c r="E96">
-        <v>0.1229751324700284</v>
+        <v>0.1339262585800078</v>
       </c>
       <c r="F96">
-        <v>0.3618039249799866</v>
+        <v>0.4074247009046546</v>
       </c>
       <c r="G96">
-        <v>0.0811176250519185</v>
+        <v>0.08307555193093041</v>
       </c>
       <c r="H96">
-        <v>0.08950080515017175</v>
-      </c>
-      <c r="I96">
-        <v>0.07778821654310386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0918441586578512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1390244976688185</v>
+        <v>0.1607734345013799</v>
       </c>
       <c r="C97">
-        <v>0.1597890576542962</v>
+        <v>0.1986371091198478</v>
       </c>
       <c r="D97">
-        <v>0.1096482808502269</v>
+        <v>0.1292003203353652</v>
       </c>
       <c r="E97">
-        <v>0.106942453402774</v>
+        <v>0.1279748921770839</v>
       </c>
       <c r="F97">
-        <v>0.03511573462358238</v>
+        <v>0.03942338811218076</v>
       </c>
       <c r="G97">
-        <v>0.1564490079186988</v>
+        <v>0.1775984994543733</v>
       </c>
       <c r="H97">
-        <v>0.1441571137370185</v>
-      </c>
-      <c r="I97">
-        <v>0.1488738541445848</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.1663923562997691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1383789699604539</v>
+        <v>0.1642612404778003</v>
       </c>
       <c r="C98">
-        <v>0.1877644907583911</v>
+        <v>0.2224574646008669</v>
       </c>
       <c r="D98">
-        <v>0.08201604084745469</v>
+        <v>0.09370927256837829</v>
       </c>
       <c r="E98">
-        <v>0.08471167906221255</v>
+        <v>0.09666661972155109</v>
       </c>
       <c r="F98">
-        <v>0.04820665138141775</v>
+        <v>0.0550623357514786</v>
       </c>
       <c r="G98">
-        <v>0.1537592384725301</v>
+        <v>0.1800816031020901</v>
       </c>
       <c r="H98">
-        <v>0.1596004921358087</v>
-      </c>
-      <c r="I98">
-        <v>0.1455624373817313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1877614637778346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1739442211606804</v>
+        <v>0.211029184266467</v>
       </c>
       <c r="C99">
-        <v>0.2099332840761525</v>
+        <v>0.2665417603839402</v>
       </c>
       <c r="D99">
-        <v>0.05984175609776355</v>
+        <v>0.0701077564745191</v>
       </c>
       <c r="E99">
-        <v>0.04765287195303806</v>
+        <v>0.05846513369457473</v>
       </c>
       <c r="F99">
-        <v>0.02983746738449821</v>
+        <v>0.03526707741924764</v>
       </c>
       <c r="G99">
-        <v>0.1617502979883725</v>
+        <v>0.1932353022567822</v>
       </c>
       <c r="H99">
-        <v>0.1338548180842258</v>
-      </c>
-      <c r="I99">
-        <v>0.1831852832552688</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1653537855044692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.06941221924610622</v>
+        <v>0.0791102486802886</v>
       </c>
       <c r="C100">
-        <v>0.08351522062781964</v>
+        <v>0.09163207686458198</v>
       </c>
       <c r="D100">
-        <v>0.1720448647811089</v>
+        <v>0.1814672665325919</v>
       </c>
       <c r="E100">
-        <v>0.109896736720987</v>
+        <v>0.1239878123712802</v>
       </c>
       <c r="F100">
-        <v>0.3103029696154343</v>
+        <v>0.3371284878463326</v>
       </c>
       <c r="G100">
-        <v>0.079708764424305</v>
+        <v>0.08359547505616219</v>
       </c>
       <c r="H100">
-        <v>0.09904682165673227</v>
-      </c>
-      <c r="I100">
-        <v>0.07607240292750649</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1030786326487626</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.06249427472532972</v>
+        <v>0.05685299972151642</v>
       </c>
       <c r="C101">
-        <v>0.07899624586696546</v>
+        <v>0.09403733187957806</v>
       </c>
       <c r="D101">
-        <v>0.1393024967567656</v>
+        <v>0.1352334670719159</v>
       </c>
       <c r="E101">
-        <v>0.1090392376282965</v>
+        <v>0.1169261452076621</v>
       </c>
       <c r="F101">
-        <v>0.3982643804219371</v>
+        <v>0.4438826584934588</v>
       </c>
       <c r="G101">
-        <v>0.08212025159170634</v>
+        <v>0.08252531756589541</v>
       </c>
       <c r="H101">
-        <v>0.07519588524212845</v>
-      </c>
-      <c r="I101">
-        <v>0.05458722776687062</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.07054208005997334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.149315351684852</v>
+        <v>0.1660360215871395</v>
       </c>
       <c r="C102">
-        <v>0.1187169394106561</v>
+        <v>0.1320886058578069</v>
       </c>
       <c r="D102">
-        <v>0.1428987735597259</v>
+        <v>0.1581024003776827</v>
       </c>
       <c r="E102">
-        <v>0.1173863603534595</v>
+        <v>0.1363577591876752</v>
       </c>
       <c r="F102">
-        <v>0.1234933511093982</v>
+        <v>0.1388236017395685</v>
       </c>
       <c r="G102">
-        <v>0.1263838197496855</v>
+        <v>0.1462284668915821</v>
       </c>
       <c r="H102">
-        <v>0.1048178002969399</v>
-      </c>
-      <c r="I102">
-        <v>0.1169876038352829</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.122363144358545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1301674951565908</v>
+        <v>0.1446379230177046</v>
       </c>
       <c r="C103">
-        <v>0.2583017526828073</v>
+        <v>0.2966814312628134</v>
       </c>
       <c r="D103">
-        <v>0.08610612542544548</v>
+        <v>0.09689140169189517</v>
       </c>
       <c r="E103">
-        <v>0.08696072686749889</v>
+        <v>0.09712805398934281</v>
       </c>
       <c r="F103">
-        <v>0.0953945034031051</v>
+        <v>0.1042510920198782</v>
       </c>
       <c r="G103">
-        <v>0.1303447246474686</v>
+        <v>0.1382822288677499</v>
       </c>
       <c r="H103">
-        <v>0.1132179382003985</v>
-      </c>
-      <c r="I103">
-        <v>0.09950673361668526</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1221278691506158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1415009032823991</v>
+        <v>0.1568707897351237</v>
       </c>
       <c r="C104">
-        <v>0.1741804225675354</v>
+        <v>0.1934007124983732</v>
       </c>
       <c r="D104">
-        <v>0.1047814779363549</v>
+        <v>0.1145573734062154</v>
       </c>
       <c r="E104">
-        <v>0.1041612073204523</v>
+        <v>0.1172208920864347</v>
       </c>
       <c r="F104">
-        <v>0.1749942611356015</v>
+        <v>0.1823574420524528</v>
       </c>
       <c r="G104">
-        <v>0.1043431304906823</v>
+        <v>0.1182484537729218</v>
       </c>
       <c r="H104">
-        <v>0.1043553856094835</v>
-      </c>
-      <c r="I104">
-        <v>0.09168321165749123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.1173443364484785</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1620967121050103</v>
+        <v>0.1827361374521773</v>
       </c>
       <c r="C105">
-        <v>0.2339655166822728</v>
+        <v>0.2668920552160988</v>
       </c>
       <c r="D105">
-        <v>0.08152099052072292</v>
+        <v>0.09656008097893116</v>
       </c>
       <c r="E105">
-        <v>0.09885425766312723</v>
+        <v>0.1156386595273989</v>
       </c>
       <c r="F105">
-        <v>0.05137664886807251</v>
+        <v>0.05555341314297282</v>
       </c>
       <c r="G105">
-        <v>0.1328839899284722</v>
+        <v>0.1504772110102691</v>
       </c>
       <c r="H105">
-        <v>0.1162403372552645</v>
-      </c>
-      <c r="I105">
-        <v>0.1230615469770575</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1321424426721519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1085882843888327</v>
+        <v>0.1220396914529614</v>
       </c>
       <c r="C106">
-        <v>0.1019852336969319</v>
+        <v>0.1138154337337845</v>
       </c>
       <c r="D106">
-        <v>0.1649787947636046</v>
+        <v>0.1804064514001296</v>
       </c>
       <c r="E106">
-        <v>0.1382221468140105</v>
+        <v>0.1570931813517144</v>
       </c>
       <c r="F106">
-        <v>0.1508871261631809</v>
+        <v>0.1752598562951136</v>
       </c>
       <c r="G106">
-        <v>0.09951536382608056</v>
+        <v>0.1120610637510928</v>
       </c>
       <c r="H106">
-        <v>0.1242702670637472</v>
-      </c>
-      <c r="I106">
-        <v>0.1115527832836118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1393243220152037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.08004135604723379</v>
+        <v>0.09087219326896885</v>
       </c>
       <c r="C107">
-        <v>0.09065547380563846</v>
+        <v>0.09713312922528676</v>
       </c>
       <c r="D107">
-        <v>0.1296515234596895</v>
+        <v>0.1399946107126298</v>
       </c>
       <c r="E107">
-        <v>0.1209504779874828</v>
+        <v>0.1316655542032319</v>
       </c>
       <c r="F107">
-        <v>0.2998138316890431</v>
+        <v>0.3286380725156857</v>
       </c>
       <c r="G107">
-        <v>0.09399996567450244</v>
+        <v>0.1043022874558386</v>
       </c>
       <c r="H107">
-        <v>0.09731462063165519</v>
-      </c>
-      <c r="I107">
-        <v>0.08757275070475473</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1073941526183583</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1776829115537354</v>
+        <v>0.1958430945299531</v>
       </c>
       <c r="C108">
-        <v>0.1199734402717232</v>
+        <v>0.1392707914907004</v>
       </c>
       <c r="D108">
-        <v>0.1280985314431761</v>
+        <v>0.1407070037539175</v>
       </c>
       <c r="E108">
-        <v>0.1242286883739858</v>
+        <v>0.1366260351385321</v>
       </c>
       <c r="F108">
-        <v>0.07096884305765831</v>
+        <v>0.08017622061760091</v>
       </c>
       <c r="G108">
-        <v>0.1358330525105836</v>
+        <v>0.1565750566967686</v>
       </c>
       <c r="H108">
-        <v>0.1274548988327949</v>
-      </c>
-      <c r="I108">
-        <v>0.1157596339563425</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1508017977725274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.06939683446252466</v>
+        <v>0.07149834847147479</v>
       </c>
       <c r="C109">
-        <v>0.05948280898630418</v>
+        <v>0.06417490309520171</v>
       </c>
       <c r="D109">
-        <v>0.1616596611530008</v>
+        <v>0.1682234321198094</v>
       </c>
       <c r="E109">
-        <v>0.1040115134535425</v>
+        <v>0.1077470570687162</v>
       </c>
       <c r="F109">
-        <v>0.3904246009396414</v>
+        <v>0.415722233524963</v>
       </c>
       <c r="G109">
-        <v>0.08708279992300545</v>
+        <v>0.09322811994105636</v>
       </c>
       <c r="H109">
-        <v>0.07255887457981872</v>
-      </c>
-      <c r="I109">
-        <v>0.05538290650216227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.07940590577877861</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1608276021168645</v>
+        <v>0.1923047054616394</v>
       </c>
       <c r="C110">
-        <v>0.2554423593298807</v>
+        <v>0.2932864070523609</v>
       </c>
       <c r="D110">
-        <v>0.03729635321389942</v>
+        <v>0.04155801036688721</v>
       </c>
       <c r="E110">
-        <v>0.05233449191741719</v>
+        <v>0.05849154957091073</v>
       </c>
       <c r="F110">
-        <v>0.01939547285468128</v>
+        <v>0.02174034025781434</v>
       </c>
       <c r="G110">
-        <v>0.1760907006819455</v>
+        <v>0.2069854373906085</v>
       </c>
       <c r="H110">
-        <v>0.1639274483997205</v>
-      </c>
-      <c r="I110">
-        <v>0.134685571485591</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1856335498997789</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.2767540474378946</v>
+        <v>0.3205663109847748</v>
       </c>
       <c r="C111">
-        <v>0.2209627309968859</v>
+        <v>0.2612216085327885</v>
       </c>
       <c r="D111">
-        <v>0.01699179935710327</v>
+        <v>0.0174150971788325</v>
       </c>
       <c r="E111">
-        <v>0.01897080948743848</v>
+        <v>0.01981267902899617</v>
       </c>
       <c r="F111">
-        <v>0.01762481300990932</v>
+        <v>0.01814187612842671</v>
       </c>
       <c r="G111">
-        <v>0.1327918933218329</v>
+        <v>0.152573288935873</v>
       </c>
       <c r="H111">
-        <v>0.1826318834342404</v>
-      </c>
-      <c r="I111">
-        <v>0.1332720229546951</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.2102691392103084</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.2193052362402262</v>
+        <v>0.2572393645947695</v>
       </c>
       <c r="C112">
-        <v>0.2328719460428421</v>
+        <v>0.2731436744354779</v>
       </c>
       <c r="D112">
-        <v>0.06967954033890526</v>
+        <v>0.07464331650644523</v>
       </c>
       <c r="E112">
-        <v>0.07306397558770479</v>
+        <v>0.07886877551338971</v>
       </c>
       <c r="F112">
-        <v>0.05366030620830787</v>
+        <v>0.05968303406619124</v>
       </c>
       <c r="G112">
-        <v>0.1333963087290262</v>
+        <v>0.1525431760969665</v>
       </c>
       <c r="H112">
-        <v>0.09375569808405079</v>
-      </c>
-      <c r="I112">
-        <v>0.1242669887689367</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.10387865878676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0597638356909759</v>
+        <v>0.06887740249323505</v>
       </c>
       <c r="C113">
-        <v>0.08488906019881733</v>
+        <v>0.09392311629614593</v>
       </c>
       <c r="D113">
-        <v>0.1891330100660711</v>
+        <v>0.2042229056007508</v>
       </c>
       <c r="E113">
-        <v>0.1203727768001181</v>
+        <v>0.1282277542416688</v>
       </c>
       <c r="F113">
-        <v>0.254757478619382</v>
+        <v>0.2807289854437366</v>
       </c>
       <c r="G113">
-        <v>0.08523282993667684</v>
+        <v>0.0936151271588105</v>
       </c>
       <c r="H113">
-        <v>0.1207524827742088</v>
-      </c>
-      <c r="I113">
-        <v>0.08509852591374997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1304047087656524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.07531612301823978</v>
+        <v>0.08030023154083164</v>
       </c>
       <c r="C114">
-        <v>0.06729995872805744</v>
+        <v>0.0745135636303793</v>
       </c>
       <c r="D114">
-        <v>0.1651453486552553</v>
+        <v>0.1744072222282116</v>
       </c>
       <c r="E114">
-        <v>0.1164161411712725</v>
+        <v>0.1239335718859693</v>
       </c>
       <c r="F114">
-        <v>0.3320436867083234</v>
+        <v>0.3534149655786333</v>
       </c>
       <c r="G114">
-        <v>0.07093501867263242</v>
+        <v>0.08137113017493251</v>
       </c>
       <c r="H114">
-        <v>0.1027765170405478</v>
-      </c>
-      <c r="I114">
-        <v>0.07006720600567123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1120593149610423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.09462201563264858</v>
+        <v>0.1051561474744915</v>
       </c>
       <c r="C115">
-        <v>0.08572502182565812</v>
+        <v>0.09710594796135982</v>
       </c>
       <c r="D115">
-        <v>0.1498194030157966</v>
+        <v>0.1664198916651983</v>
       </c>
       <c r="E115">
-        <v>0.135323452751612</v>
+        <v>0.1500747969581195</v>
       </c>
       <c r="F115">
-        <v>0.2770845278184952</v>
+        <v>0.287528612444649</v>
       </c>
       <c r="G115">
-        <v>0.08510235691297645</v>
+        <v>0.09522592214232801</v>
       </c>
       <c r="H115">
-        <v>0.08756662592396992</v>
-      </c>
-      <c r="I115">
-        <v>0.08475659611884298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.09848868135385398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.08961999961021035</v>
+        <v>0.09808021714681014</v>
       </c>
       <c r="C116">
-        <v>0.08167046291742361</v>
+        <v>0.08982088831037785</v>
       </c>
       <c r="D116">
-        <v>0.1473385426544073</v>
+        <v>0.1636659693513948</v>
       </c>
       <c r="E116">
-        <v>0.08206802946413626</v>
+        <v>0.07978008707293574</v>
       </c>
       <c r="F116">
-        <v>0.3620445435836954</v>
+        <v>0.3804247218283842</v>
       </c>
       <c r="G116">
-        <v>0.1080757757111321</v>
+        <v>0.1140965918907603</v>
       </c>
       <c r="H116">
-        <v>0.07011632414090847</v>
-      </c>
-      <c r="I116">
-        <v>0.05906632191808658</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.07413152439933694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.05213164184583381</v>
+        <v>0.05400612774486019</v>
       </c>
       <c r="C117">
-        <v>0.06770512540356764</v>
+        <v>0.0707811161827941</v>
       </c>
       <c r="D117">
-        <v>0.1030572382714025</v>
+        <v>0.1051167722571316</v>
       </c>
       <c r="E117">
-        <v>0.1178840226522457</v>
+        <v>0.1326605539182493</v>
       </c>
       <c r="F117">
-        <v>0.3778202492121299</v>
+        <v>0.4120330419095463</v>
       </c>
       <c r="G117">
-        <v>0.07651544028015334</v>
+        <v>0.08188616318184089</v>
       </c>
       <c r="H117">
-        <v>0.1314714201629372</v>
-      </c>
-      <c r="I117">
-        <v>0.07341486217172984</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.1435162248055777</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.08274353562312663</v>
+        <v>0.09161408581246419</v>
       </c>
       <c r="C118">
-        <v>0.08780260790601487</v>
+        <v>0.09641699487994448</v>
       </c>
       <c r="D118">
-        <v>0.1676384778341341</v>
+        <v>0.1812029525318218</v>
       </c>
       <c r="E118">
-        <v>0.1306150864542551</v>
+        <v>0.1409691423008211</v>
       </c>
       <c r="F118">
-        <v>0.309111324714934</v>
+        <v>0.3259094411564267</v>
       </c>
       <c r="G118">
-        <v>0.07569798141241114</v>
+        <v>0.08421981400642674</v>
       </c>
       <c r="H118">
-        <v>0.07312056821589871</v>
-      </c>
-      <c r="I118">
-        <v>0.0732704178392253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.07966756931209507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1500019097714332</v>
+        <v>0.1737647827719306</v>
       </c>
       <c r="C119">
-        <v>0.1412836660559089</v>
+        <v>0.1601281360152382</v>
       </c>
       <c r="D119">
-        <v>0.1411201166279775</v>
+        <v>0.1579617263123982</v>
       </c>
       <c r="E119">
-        <v>0.1102023413956828</v>
+        <v>0.1297337087019706</v>
       </c>
       <c r="F119">
-        <v>0.08949064842105582</v>
+        <v>0.09746443572351367</v>
       </c>
       <c r="G119">
-        <v>0.1310180645357275</v>
+        <v>0.1504242675483911</v>
       </c>
       <c r="H119">
-        <v>0.1118783498959051</v>
-      </c>
-      <c r="I119">
-        <v>0.1250049032963093</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1305229429265576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.06209456775320415</v>
+        <v>0.06608220499446345</v>
       </c>
       <c r="C120">
-        <v>0.07486032276138468</v>
+        <v>0.07756799885373528</v>
       </c>
       <c r="D120">
-        <v>0.1732733744093573</v>
+        <v>0.1857639264794484</v>
       </c>
       <c r="E120">
-        <v>0.1272533467790295</v>
+        <v>0.1359024498442558</v>
       </c>
       <c r="F120">
-        <v>0.3038070998091331</v>
+        <v>0.3292958472590083</v>
       </c>
       <c r="G120">
-        <v>0.1047603914364839</v>
+        <v>0.1113148381508054</v>
       </c>
       <c r="H120">
-        <v>0.09400265060028884</v>
-      </c>
-      <c r="I120">
-        <v>0.05994824645111847</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.09407273441828333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1382516297395458</v>
+        <v>0.1596407363552792</v>
       </c>
       <c r="C121">
-        <v>0.1429984475372113</v>
+        <v>0.1690816590484274</v>
       </c>
       <c r="D121">
-        <v>0.1124044069875962</v>
+        <v>0.1329774545594115</v>
       </c>
       <c r="E121">
-        <v>0.1218934495830666</v>
+        <v>0.1406282362656441</v>
       </c>
       <c r="F121">
-        <v>0.08184751897568446</v>
+        <v>0.09892112379538083</v>
       </c>
       <c r="G121">
-        <v>0.1232440697075135</v>
+        <v>0.1457620020254818</v>
       </c>
       <c r="H121">
-        <v>0.1288881707884391</v>
-      </c>
-      <c r="I121">
-        <v>0.1504723066809433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1529887879503752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.4664905461275232</v>
+        <v>0.5640298215153282</v>
       </c>
       <c r="C122">
-        <v>0.1152727703419806</v>
+        <v>0.1271438126924065</v>
       </c>
       <c r="D122">
-        <v>0.03235659672862575</v>
+        <v>0.03117307261184467</v>
       </c>
       <c r="E122">
-        <v>0.03379122291687055</v>
+        <v>0.0329745899198373</v>
       </c>
       <c r="F122">
-        <v>0.05103807395124856</v>
+        <v>0.05569334164842155</v>
       </c>
       <c r="G122">
-        <v>0.09451708835289875</v>
+        <v>0.1014536480832153</v>
       </c>
       <c r="H122">
-        <v>0.08252111730269093</v>
-      </c>
-      <c r="I122">
-        <v>0.1240125842781615</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.08753171352894655</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.06571468568466159</v>
+        <v>0.07347409828657397</v>
       </c>
       <c r="C123">
-        <v>0.09460620779989062</v>
+        <v>0.1045097636794389</v>
       </c>
       <c r="D123">
-        <v>0.156735544415842</v>
+        <v>0.1696593066153237</v>
       </c>
       <c r="E123">
-        <v>0.1182106925202732</v>
+        <v>0.125631938900816</v>
       </c>
       <c r="F123">
-        <v>0.3058139142052999</v>
+        <v>0.3279507952426085</v>
       </c>
       <c r="G123">
-        <v>0.1023260234975139</v>
+        <v>0.1066928159117804</v>
       </c>
       <c r="H123">
-        <v>0.08294438095089722</v>
-      </c>
-      <c r="I123">
-        <v>0.07364855092562153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.09208128136345847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.09491985214165843</v>
+        <v>0.1042068626177983</v>
       </c>
       <c r="C124">
-        <v>0.09682724773299403</v>
+        <v>0.1079351532707242</v>
       </c>
       <c r="D124">
-        <v>0.1444342246571367</v>
+        <v>0.1622709836628377</v>
       </c>
       <c r="E124">
-        <v>0.1182653585725052</v>
+        <v>0.1325705569989003</v>
       </c>
       <c r="F124">
-        <v>0.2728743486267964</v>
+        <v>0.2865900701942547</v>
       </c>
       <c r="G124">
-        <v>0.0972726896085719</v>
+        <v>0.1067149766904821</v>
       </c>
       <c r="H124">
-        <v>0.08972179696463475</v>
-      </c>
-      <c r="I124">
-        <v>0.08568448169570239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.09971139656500257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0886332417694789</v>
+        <v>0.09560031331433075</v>
       </c>
       <c r="C125">
-        <v>0.08059120958278705</v>
+        <v>0.08806504923032971</v>
       </c>
       <c r="D125">
-        <v>0.1438496661037406</v>
+        <v>0.1604307859714554</v>
       </c>
       <c r="E125">
-        <v>0.1155061275575932</v>
+        <v>0.128559616204969</v>
       </c>
       <c r="F125">
-        <v>0.2976797659466495</v>
+        <v>0.3174405871069763</v>
       </c>
       <c r="G125">
-        <v>0.095243197708933</v>
+        <v>0.1039892631571952</v>
       </c>
       <c r="H125">
-        <v>0.09900959509381946</v>
-      </c>
-      <c r="I125">
-        <v>0.07948719623699833</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1059143850147435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1509233003312007</v>
+        <v>0.1741883382659513</v>
       </c>
       <c r="C126">
-        <v>0.1402493578187412</v>
+        <v>0.1640291601484006</v>
       </c>
       <c r="D126">
-        <v>0.1435830635769026</v>
+        <v>0.1628460083873227</v>
       </c>
       <c r="E126">
-        <v>0.1167226883232019</v>
+        <v>0.1337782136823227</v>
       </c>
       <c r="F126">
-        <v>0.06020327749417841</v>
+        <v>0.07428497243670958</v>
       </c>
       <c r="G126">
-        <v>0.1273860734771855</v>
+        <v>0.1558527869535139</v>
       </c>
       <c r="H126">
-        <v>0.1177815543513022</v>
-      </c>
-      <c r="I126">
-        <v>0.1431506846272874</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1350205201257792</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1143710952229955</v>
+        <v>0.1289048256976257</v>
       </c>
       <c r="C127">
-        <v>0.1094068042461983</v>
+        <v>0.1226148314061787</v>
       </c>
       <c r="D127">
-        <v>0.1251256052103899</v>
+        <v>0.1414811189504486</v>
       </c>
       <c r="E127">
-        <v>0.1602362547657266</v>
+        <v>0.183960360914276</v>
       </c>
       <c r="F127">
-        <v>0.1064346927976913</v>
+        <v>0.1175570188290672</v>
       </c>
       <c r="G127">
-        <v>0.1238276399614633</v>
+        <v>0.1398046930015486</v>
       </c>
       <c r="H127">
-        <v>0.1475838462884793</v>
-      </c>
-      <c r="I127">
-        <v>0.1130140615070556</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.1656771512008552</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.120279360261682</v>
+        <v>0.1435044509643403</v>
       </c>
       <c r="C128">
-        <v>0.1976167618787143</v>
+        <v>0.2291074047950324</v>
       </c>
       <c r="D128">
-        <v>0.05996171631008142</v>
+        <v>0.06823891308278515</v>
       </c>
       <c r="E128">
-        <v>0.1013067099359866</v>
+        <v>0.1218484566098461</v>
       </c>
       <c r="F128">
-        <v>0.02944436541089415</v>
+        <v>0.03374997193935334</v>
       </c>
       <c r="G128">
-        <v>0.1755883783323291</v>
+        <v>0.2093023223839034</v>
       </c>
       <c r="H128">
-        <v>0.1628879160533701</v>
-      </c>
-      <c r="I128">
-        <v>0.1529147918169424</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1942484802247392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1131858991109048</v>
+        <v>0.1336425938972524</v>
       </c>
       <c r="C129">
-        <v>0.181581675646774</v>
+        <v>0.2139707637625962</v>
       </c>
       <c r="D129">
-        <v>0.0778305495569335</v>
+        <v>0.09308661027767649</v>
       </c>
       <c r="E129">
-        <v>0.1088457095727789</v>
+        <v>0.1315966982059649</v>
       </c>
       <c r="F129">
-        <v>0.03166741463201767</v>
+        <v>0.03575758625931693</v>
       </c>
       <c r="G129">
-        <v>0.1753366875065402</v>
+        <v>0.2032571951865638</v>
       </c>
       <c r="H129">
-        <v>0.1591683701236162</v>
-      </c>
-      <c r="I129">
-        <v>0.1523836938504347</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1886885524106292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2204657893313986</v>
+        <v>0.2499565465030622</v>
       </c>
       <c r="C130">
-        <v>0.1353987076142616</v>
+        <v>0.1523429440406378</v>
       </c>
       <c r="D130">
-        <v>0.09599701465324662</v>
+        <v>0.1127824612888322</v>
       </c>
       <c r="E130">
-        <v>0.09170397963758781</v>
+        <v>0.1057873975310632</v>
       </c>
       <c r="F130">
-        <v>0.05991365539386133</v>
+        <v>0.0704659765875417</v>
       </c>
       <c r="G130">
-        <v>0.1566267746814535</v>
+        <v>0.179966782781245</v>
       </c>
       <c r="H130">
-        <v>0.1101677272138744</v>
-      </c>
-      <c r="I130">
-        <v>0.1297263514743164</v>
+        <v>0.1286978912676179</v>
       </c>
     </row>
   </sheetData>
